--- a/Module_1_API_Connector_Plan_Filled.xlsx
+++ b/Module_1_API_Connector_Plan_Filled.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88BEAC-7D3C-45BB-AA45-1A5981B90EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3EB27-FED9-476E-9A0A-6FF700F53BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module 1 - API Connector" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="316">
   <si>
     <t>Module</t>
   </si>
@@ -689,9 +690,6 @@
     <t>Expected DB outputs ready</t>
   </si>
   <si>
-    <t>Dev-2 + QA-2</t>
-  </si>
-  <si>
     <t>API + DB integration testing</t>
   </si>
   <si>
@@ -701,9 +699,6 @@
     <t>API Ready</t>
   </si>
   <si>
-    <t>End-to-end validation testing</t>
-  </si>
-  <si>
     <t>Complete validation flow verified</t>
   </si>
   <si>
@@ -741,13 +736,247 @@
   </si>
   <si>
     <t xml:space="preserve">Dev-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>UI Wireframe Design &amp; Discussion</t>
+  </si>
+  <si>
+    <t>Understand product scope &amp; connector vision</t>
+  </si>
+  <si>
+    <t>Shared understanding of connector platform</t>
+  </si>
+  <si>
+    <t>UI-1 + QA</t>
+  </si>
+  <si>
+    <t>Create initial wireframes for connectors</t>
+  </si>
+  <si>
+    <t>Test Case &amp; Connector screens drafted</t>
+  </si>
+  <si>
+    <t>Review wireframes with stakeholders</t>
+  </si>
+  <si>
+    <t>Stakeholder feedback captured</t>
+  </si>
+  <si>
+    <t>Wireframe Draft</t>
+  </si>
+  <si>
+    <t>Wireframe Review &amp; Sign-off</t>
+  </si>
+  <si>
+    <t>Incorporate review comments</t>
+  </si>
+  <si>
+    <t>Updated wireframes ready</t>
+  </si>
+  <si>
+    <t>Review Feedback</t>
+  </si>
+  <si>
+    <t>Approved UI baseline</t>
+  </si>
+  <si>
+    <t>Updated Wireframes</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Application Access / Overview / KT</t>
+  </si>
+  <si>
+    <t>Onboard team to application context</t>
+  </si>
+  <si>
+    <t>Team familiar with domain</t>
+  </si>
+  <si>
+    <t>Cross-Team</t>
+  </si>
+  <si>
+    <t>QA + Dev-1 + Dev-2</t>
+  </si>
+  <si>
+    <t>KT on existing systems &amp; flows</t>
+  </si>
+  <si>
+    <t>Payment &amp; validation flows understood</t>
+  </si>
+  <si>
+    <t>Access Ready</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Finalize team allocation</t>
+  </si>
+  <si>
+    <t>Resource plan approved</t>
+  </si>
+  <si>
+    <t>PM + Leads</t>
+  </si>
+  <si>
+    <t>Environment &amp; access setup</t>
+  </si>
+  <si>
+    <t>All tools &amp; repos accessible</t>
+  </si>
+  <si>
+    <t>Resource Finalized</t>
+  </si>
+  <si>
+    <t>IT + DevOps</t>
+  </si>
+  <si>
+    <t>Framework Design &amp; Implementation</t>
+  </si>
+  <si>
+    <t>Execution Engine Ready</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Bug Fixing &amp; Feedback Incorporation</t>
+  </si>
+  <si>
+    <t>Fix backend defects</t>
+  </si>
+  <si>
+    <t>Backend defects resolved</t>
+  </si>
+  <si>
+    <t>Skeleton Ready</t>
+  </si>
+  <si>
+    <t>Create base project skeleton</t>
+  </si>
+  <si>
+    <t>Project structure initialized</t>
+  </si>
+  <si>
+    <t>Implement common configuration loader</t>
+  </si>
+  <si>
+    <t>Environment-based config loading</t>
+  </si>
+  <si>
+    <t>Implement shared HTTP execution engine</t>
+  </si>
+  <si>
+    <t>Common API execution engine ready</t>
+  </si>
+  <si>
+    <t>Config Loader Ready</t>
+  </si>
+  <si>
+    <t>Implement connector dependency resolver</t>
+  </si>
+  <si>
+    <t>Execution order &amp; dependency handling</t>
+  </si>
+  <si>
+    <t>Implement runtime variable store</t>
+  </si>
+  <si>
+    <t>Shared runtime data store implemented</t>
+  </si>
+  <si>
+    <t>Define UI–framework interaction contract</t>
+  </si>
+  <si>
+    <t>UI-backend integration contract finalized</t>
+  </si>
+  <si>
+    <t>Framework Skeleton Ready</t>
+  </si>
+  <si>
+    <t>Create reusable UI service layer</t>
+  </si>
+  <si>
+    <t>UI service abstraction created</t>
+  </si>
+  <si>
+    <t>UI Contract Defined</t>
+  </si>
+  <si>
+    <t>Implement framework error &amp; response mapping UI</t>
+  </si>
+  <si>
+    <t>Unified error &amp; response handling</t>
+  </si>
+  <si>
+    <t>UI Service Ready</t>
+  </si>
+  <si>
+    <t>Framework–UI integration sanity check</t>
+  </si>
+  <si>
+    <t>UI integrated with framework</t>
+  </si>
+  <si>
+    <t>Backend Framework Ready</t>
+  </si>
+  <si>
+    <t>Business &amp; flow understood</t>
+  </si>
+  <si>
+    <t>Technical understanding prepared</t>
+  </si>
+  <si>
+    <t>Test scenarios &amp; coverage identified</t>
+  </si>
+  <si>
+    <t>Supported API patterns finalized</t>
+  </si>
+  <si>
+    <t>Test auth cases identified</t>
+  </si>
+  <si>
+    <t>Testability reviewed</t>
+  </si>
+  <si>
+    <t>Prepare validation payloads</t>
+  </si>
+  <si>
+    <t>Backend unit &amp; integration testing</t>
+  </si>
+  <si>
+    <t>Backend flow verified</t>
+  </si>
+  <si>
+    <t>UI unit &amp; integration testing</t>
+  </si>
+  <si>
+    <t>UI-backend flow verified</t>
+  </si>
+  <si>
+    <t>UI Ready</t>
+  </si>
+  <si>
+    <t>Fix UI defects</t>
+  </si>
+  <si>
+    <t>UI defects resolved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +988,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -778,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -838,12 +1073,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -860,6 +1110,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2259,1668 +2519,3255 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB212B-7EE5-4CCE-A35A-15599CD10061}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="6">
+        <v>46028</v>
+      </c>
+      <c r="J2" s="6">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="6">
+        <v>46030</v>
+      </c>
+      <c r="J3" s="6">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="6">
+        <v>46037</v>
+      </c>
+      <c r="J4" s="6">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="6">
+        <v>46042</v>
+      </c>
+      <c r="J5" s="6">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="6">
+        <v>46045</v>
+      </c>
+      <c r="J6" s="6">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="6">
+        <v>46028</v>
+      </c>
+      <c r="J7" s="6">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="6">
+        <v>46030</v>
+      </c>
+      <c r="J8" s="6">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="6">
+        <v>46028</v>
+      </c>
+      <c r="J9" s="6">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="6">
+        <v>46029</v>
+      </c>
+      <c r="J10" s="6">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="6">
+        <v>46055</v>
+      </c>
+      <c r="J11" s="6">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="6">
+        <v>46056</v>
+      </c>
+      <c r="J12" s="6">
+        <v>46056</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="6">
+        <v>46057</v>
+      </c>
+      <c r="J13" s="6">
+        <v>46058</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="6">
+        <v>46059</v>
+      </c>
+      <c r="J14" s="6">
+        <v>46059</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="6">
+        <v>46062</v>
+      </c>
+      <c r="J15" s="6">
+        <v>46062</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="6">
+        <v>46055</v>
+      </c>
+      <c r="J16" s="6">
+        <v>46055</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="6">
+        <v>46056</v>
+      </c>
+      <c r="J17" s="6">
+        <v>46057</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="6">
+        <v>46058</v>
+      </c>
+      <c r="J18" s="6">
+        <v>46058</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="6">
+        <v>46059</v>
+      </c>
+      <c r="J19" s="6">
+        <v>46059</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="12">
+        <v>46063</v>
+      </c>
+      <c r="J20" s="12">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="6">
+        <v>46064</v>
+      </c>
+      <c r="J21" s="6">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="6">
+        <v>46065</v>
+      </c>
+      <c r="J22" s="6">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="6">
+        <v>46066</v>
+      </c>
+      <c r="J23" s="6">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="6">
+        <v>46070</v>
+      </c>
+      <c r="J24" s="6">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="6">
+        <v>46072</v>
+      </c>
+      <c r="J25" s="6">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="6">
+        <v>46073</v>
+      </c>
+      <c r="J26" s="6">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I27" s="6">
+        <v>46074</v>
+      </c>
+      <c r="J27" s="6">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="6">
+        <v>46077</v>
+      </c>
+      <c r="J28" s="6">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="6">
+        <v>46078</v>
+      </c>
+      <c r="J29" s="6">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="6">
+        <v>46080</v>
+      </c>
+      <c r="J30" s="6">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="6">
+        <v>46071</v>
+      </c>
+      <c r="J31" s="6">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="6">
+        <v>46072</v>
+      </c>
+      <c r="J32" s="6">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="6">
+        <v>46074</v>
+      </c>
+      <c r="J33" s="6">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="6">
+        <v>46075</v>
+      </c>
+      <c r="J34" s="6">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="6">
+        <v>46071</v>
+      </c>
+      <c r="J35" s="6">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="6">
+        <v>46073</v>
+      </c>
+      <c r="J36" s="6">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="6">
+        <v>46077</v>
+      </c>
+      <c r="J37" s="6">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="6">
+        <v>46078</v>
+      </c>
+      <c r="J38" s="6">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="6">
+        <v>46084</v>
+      </c>
+      <c r="J39" s="6">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="6">
+        <v>46086</v>
+      </c>
+      <c r="J40" s="6">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="6">
+        <v>46085</v>
+      </c>
+      <c r="J41" s="6">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="6">
+        <v>46091</v>
+      </c>
+      <c r="J42" s="6">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="6">
+        <v>46093</v>
+      </c>
+      <c r="J43" s="6">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="6">
+        <v>46094</v>
+      </c>
+      <c r="J44" s="6">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45" s="6">
+        <v>46097</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" s="6">
+        <v>46098</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="6">
+        <v>46099</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="6">
+        <v>46100</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="6">
+        <v>46104</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="6">
+        <v>46105</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="6">
+        <v>46107</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="6">
+        <v>46108</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="6">
+        <v>46111</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="6">
+        <v>46112</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="6">
+        <v>46113</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="6">
+        <v>46114</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="6">
+        <v>46115</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="6">
+        <v>46118</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="6">
+        <v>46119</v>
+      </c>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="6">
+        <v>46120</v>
+      </c>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="6">
+        <v>46104</v>
+      </c>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="6">
+        <v>46105</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="6">
+        <v>46107</v>
+      </c>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="6">
+        <v>46108</v>
+      </c>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="6">
+        <v>46111</v>
+      </c>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="6">
+        <v>46105</v>
+      </c>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67" s="6">
+        <v>46107</v>
+      </c>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="6">
+        <v>46111</v>
+      </c>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="6">
+        <v>46112</v>
+      </c>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="5">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="6">
+        <v>46121</v>
+      </c>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="5">
+        <v>2</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" s="6">
+        <v>46125</v>
+      </c>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" s="5">
+        <v>2</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" s="6">
+        <v>46127</v>
+      </c>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="5">
+        <v>2</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="6">
+        <v>46129</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="6">
+        <v>46133</v>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="5">
+        <v>2</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="6">
+        <v>46135</v>
+      </c>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="6">
+        <v>46136</v>
+      </c>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" s="6">
+        <v>46136</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="6">
+        <v>46139</v>
+      </c>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="6">
+        <v>46140</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A45:A79"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5168F43-F20A-49DA-A21B-74D7384E1077}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>46063</v>
+      </c>
+      <c r="J1" s="1">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46063</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46064</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46064</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46065</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46065</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46066</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46066</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46070</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46072</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46073</v>
+      </c>
+      <c r="J11" s="1">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46074</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46077</v>
+      </c>
+      <c r="J13" s="1">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="1">
+        <v>46078</v>
+      </c>
+      <c r="J14" s="1">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="1">
+        <v>46080</v>
+      </c>
+      <c r="J15" s="1">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="1">
+        <v>46071</v>
+      </c>
+      <c r="J16" s="1">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1">
+        <v>46072</v>
+      </c>
+      <c r="J17" s="1">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1">
+        <v>46074</v>
+      </c>
+      <c r="J18" s="1">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1">
+        <v>46075</v>
+      </c>
+      <c r="J19" s="1">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="1">
+        <v>46071</v>
+      </c>
+      <c r="J20" s="1">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>46073</v>
+      </c>
+      <c r="J21" s="1">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="1">
+        <v>46077</v>
+      </c>
+      <c r="J22" s="1">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1">
+        <v>46078</v>
+      </c>
+      <c r="J23" s="1">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="1">
+        <v>46084</v>
+      </c>
+      <c r="J24" s="1">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>313</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1">
+        <v>46086</v>
+      </c>
+      <c r="J25" s="1">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="4">
-        <v>46063</v>
-      </c>
-      <c r="J2" s="4">
-        <v>46063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="4">
-        <v>46064</v>
-      </c>
-      <c r="J3" s="4">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="4">
-        <v>46065</v>
-      </c>
-      <c r="J4" s="4">
-        <v>46065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="4">
-        <v>46066</v>
-      </c>
-      <c r="J5" s="4">
-        <v>46069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="4">
-        <v>46070</v>
-      </c>
-      <c r="J6" s="4">
-        <v>46071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I7" s="4">
-        <v>46072</v>
-      </c>
-      <c r="J7" s="4">
-        <v>46072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I8" s="4">
-        <v>46073</v>
-      </c>
-      <c r="J8" s="4">
-        <v>46073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="4">
-        <v>46074</v>
-      </c>
-      <c r="J9" s="4">
-        <v>46074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I10" s="4">
-        <v>46077</v>
-      </c>
-      <c r="J10" s="4">
-        <v>46077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="4">
-        <v>46078</v>
-      </c>
-      <c r="J11" s="4">
-        <v>46079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I12" s="4">
-        <v>46080</v>
-      </c>
-      <c r="J12" s="4">
-        <v>46083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="1">
+        <v>46085</v>
+      </c>
+      <c r="J26" s="1">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="1">
+        <v>46091</v>
+      </c>
+      <c r="J27" s="1">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="4">
-        <v>46071</v>
-      </c>
-      <c r="J13" s="4">
-        <v>46071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="4">
-        <v>46072</v>
-      </c>
-      <c r="J14" s="4">
-        <v>46073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="4">
-        <v>46074</v>
-      </c>
-      <c r="J15" s="4">
-        <v>46074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="4">
-        <v>46075</v>
-      </c>
-      <c r="J16" s="4">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="I28" s="1">
+        <v>46091</v>
+      </c>
+      <c r="J28" s="1">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="4">
-        <v>46071</v>
-      </c>
-      <c r="J17" s="4">
-        <v>46072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1">
+        <v>46093</v>
+      </c>
+      <c r="J29" s="1">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="4">
-        <v>46073</v>
-      </c>
-      <c r="J18" s="4">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="4">
-        <v>46077</v>
-      </c>
-      <c r="J19" s="4">
-        <v>46077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="4">
-        <v>46078</v>
-      </c>
-      <c r="J20" s="4">
-        <v>46078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="4">
-        <v>46084</v>
-      </c>
-      <c r="J21" s="4">
-        <v>46085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="4">
-        <v>46086</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="4">
-        <v>46085</v>
-      </c>
-      <c r="J23" s="4">
-        <v>46090</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="4">
-        <v>46091</v>
-      </c>
-      <c r="J24" s="4">
-        <v>46092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F30" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="4">
-        <v>46093</v>
-      </c>
-      <c r="J25" s="4">
-        <v>46093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="I30" s="1">
         <v>46094</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J30" s="1">
         <v>46094</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="3">
-        <v>2</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A61"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module_1_API_Connector_Plan_Filled.xlsx
+++ b/Module_1_API_Connector_Plan_Filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E3EB27-FED9-476E-9A0A-6FF700F53BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4CE293-BC7F-4327-B208-F558CF6C10F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="513">
   <si>
     <t>Module</t>
   </si>
@@ -540,6 +540,9 @@
     <t>Retest DB scenarios</t>
   </si>
   <si>
+    <t>Final approval</t>
+  </si>
+  <si>
     <t>Planned End Date</t>
   </si>
   <si>
@@ -843,6 +846,9 @@
     <t>Framework Design &amp; Implementation</t>
   </si>
   <si>
+    <t>Test execution engine ready</t>
+  </si>
+  <si>
     <t>Execution Engine Ready</t>
   </si>
   <si>
@@ -970,6 +976,591 @@
   </si>
   <si>
     <t>UI defects resolved</t>
+  </si>
+  <si>
+    <t>Module 3: Test Case Management</t>
+  </si>
+  <si>
+    <t>System Analysis &amp; Design</t>
+  </si>
+  <si>
+    <t>Understand test case lifecycle</t>
+  </si>
+  <si>
+    <t>End-to-end test case flow clarity</t>
+  </si>
+  <si>
+    <t>M1 &amp; M2 Complete</t>
+  </si>
+  <si>
+    <t>Define test case data model</t>
+  </si>
+  <si>
+    <t>Schema &amp; relationships finalized</t>
+  </si>
+  <si>
+    <t>Define UI wireframe flow</t>
+  </si>
+  <si>
+    <t>UI flow approved</t>
+  </si>
+  <si>
+    <t>Test Case CRUD APIs</t>
+  </si>
+  <si>
+    <t>Create test case API</t>
+  </si>
+  <si>
+    <t>Test case creation enabled</t>
+  </si>
+  <si>
+    <t>Update test case API</t>
+  </si>
+  <si>
+    <t>Test case update enabled</t>
+  </si>
+  <si>
+    <t>CRUD Create Ready</t>
+  </si>
+  <si>
+    <t>Delete test case API</t>
+  </si>
+  <si>
+    <t>Test case deletion enabled</t>
+  </si>
+  <si>
+    <t>CRUD Update Ready</t>
+  </si>
+  <si>
+    <t>List &amp; filter test cases</t>
+  </si>
+  <si>
+    <t>Search &amp; pagination supported</t>
+  </si>
+  <si>
+    <t>CRUD APIs Ready</t>
+  </si>
+  <si>
+    <t>Test Case Management UI</t>
+  </si>
+  <si>
+    <t>Test case listing screen</t>
+  </si>
+  <si>
+    <t>Usable list view</t>
+  </si>
+  <si>
+    <t>Create test case screen</t>
+  </si>
+  <si>
+    <t>Create flow available</t>
+  </si>
+  <si>
+    <t>List UI Ready</t>
+  </si>
+  <si>
+    <t>Edit test case screen</t>
+  </si>
+  <si>
+    <t>Edit flow enabled</t>
+  </si>
+  <si>
+    <t>Create UI Ready</t>
+  </si>
+  <si>
+    <t>Backend unit testing</t>
+  </si>
+  <si>
+    <t>APIs verified</t>
+  </si>
+  <si>
+    <t>Backend Impl Complete</t>
+  </si>
+  <si>
+    <t>UI integration testing</t>
+  </si>
+  <si>
+    <t>UI + API verified</t>
+  </si>
+  <si>
+    <t>QA Scenario &amp; Coverage Design</t>
+  </si>
+  <si>
+    <t>Test scenarios design</t>
+  </si>
+  <si>
+    <t>Dev &amp; UI Tested</t>
+  </si>
+  <si>
+    <t>Test Scenarios Ready</t>
+  </si>
+  <si>
+    <t>Backend defect fixes</t>
+  </si>
+  <si>
+    <t>Backend stabilized</t>
+  </si>
+  <si>
+    <t>UI defect fixes</t>
+  </si>
+  <si>
+    <t>UI stabilized</t>
+  </si>
+  <si>
+    <t>Retest &amp; validation</t>
+  </si>
+  <si>
+    <t>Stable module</t>
+  </si>
+  <si>
+    <t>Client approved</t>
+  </si>
+  <si>
+    <t>Retest Complete</t>
+  </si>
+  <si>
+    <t>Module 4: Bulk Test Case Import</t>
+  </si>
+  <si>
+    <t>Understand bulk import requirements</t>
+  </si>
+  <si>
+    <t>Clear import flow &amp; validations defined</t>
+  </si>
+  <si>
+    <t>Module 3 Complete</t>
+  </si>
+  <si>
+    <t>Define template structure &amp; rules</t>
+  </si>
+  <si>
+    <t>Approved import template</t>
+  </si>
+  <si>
+    <t>Template Design</t>
+  </si>
+  <si>
+    <t>Create Excel/CSV template</t>
+  </si>
+  <si>
+    <t>Reusable import template ready</t>
+  </si>
+  <si>
+    <t>Template validation rules defined</t>
+  </si>
+  <si>
+    <t>Validation rules finalized</t>
+  </si>
+  <si>
+    <t>Template Draft</t>
+  </si>
+  <si>
+    <t>Bulk Import Backend</t>
+  </si>
+  <si>
+    <t>Parse uploaded file</t>
+  </si>
+  <si>
+    <t>File parsing working</t>
+  </si>
+  <si>
+    <t>Validate test case data</t>
+  </si>
+  <si>
+    <t>Data validation implemented</t>
+  </si>
+  <si>
+    <t>Parser Ready</t>
+  </si>
+  <si>
+    <t>Persist test cases</t>
+  </si>
+  <si>
+    <t>Test cases stored successfully</t>
+  </si>
+  <si>
+    <t>Validation Ready</t>
+  </si>
+  <si>
+    <t>Bulk Import UI</t>
+  </si>
+  <si>
+    <t>Upload template UI</t>
+  </si>
+  <si>
+    <t>File upload supported</t>
+  </si>
+  <si>
+    <t>Error &amp; success summary UI</t>
+  </si>
+  <si>
+    <t>User feedback displayed</t>
+  </si>
+  <si>
+    <t>Upload Ready</t>
+  </si>
+  <si>
+    <t>Bulk APIs verified</t>
+  </si>
+  <si>
+    <t>UI + backend verified</t>
+  </si>
+  <si>
+    <t>QA Scenario &amp; Execution</t>
+  </si>
+  <si>
+    <t>Execute bulk import scenarios</t>
+  </si>
+  <si>
+    <t>Defects identified</t>
+  </si>
+  <si>
+    <t>Backend fixes</t>
+  </si>
+  <si>
+    <t>Bulk flow stabilized</t>
+  </si>
+  <si>
+    <t>UI fixes</t>
+  </si>
+  <si>
+    <t>Final validation</t>
+  </si>
+  <si>
+    <t>Module 5: Test Execution Engine</t>
+  </si>
+  <si>
+    <t>Understand execution flow</t>
+  </si>
+  <si>
+    <t>Execution lifecycle defined</t>
+  </si>
+  <si>
+    <t>Module 4 Complete</t>
+  </si>
+  <si>
+    <t>Define execution states</t>
+  </si>
+  <si>
+    <t>State machine finalized</t>
+  </si>
+  <si>
+    <t>Flow Understanding</t>
+  </si>
+  <si>
+    <t>Execution Engine Core</t>
+  </si>
+  <si>
+    <t>Build execution orchestrator</t>
+  </si>
+  <si>
+    <t>Handle async &amp; retries</t>
+  </si>
+  <si>
+    <t>Stable execution handling</t>
+  </si>
+  <si>
+    <t>Core Engine Ready</t>
+  </si>
+  <si>
+    <t>Execution UI</t>
+  </si>
+  <si>
+    <t>Start execution UI</t>
+  </si>
+  <si>
+    <t>Execution trigger available</t>
+  </si>
+  <si>
+    <t>View execution status</t>
+  </si>
+  <si>
+    <t>Status &amp; logs visible</t>
+  </si>
+  <si>
+    <t>Trigger Ready</t>
+  </si>
+  <si>
+    <t>Backend execution testing</t>
+  </si>
+  <si>
+    <t>Execution verified</t>
+  </si>
+  <si>
+    <t>UI execution validation</t>
+  </si>
+  <si>
+    <t>UI &amp; backend synced</t>
+  </si>
+  <si>
+    <t>QA Execution</t>
+  </si>
+  <si>
+    <t>Test execution scenarios</t>
+  </si>
+  <si>
+    <t>Execution stabilized</t>
+  </si>
+  <si>
+    <t>Module 6: Validation Engine</t>
+  </si>
+  <si>
+    <t>Understand validation rules</t>
+  </si>
+  <si>
+    <t>Rule framework defined</t>
+  </si>
+  <si>
+    <t>Module 5 Complete</t>
+  </si>
+  <si>
+    <t>Define rule schema</t>
+  </si>
+  <si>
+    <t>Schema approved</t>
+  </si>
+  <si>
+    <t>Rule Understanding</t>
+  </si>
+  <si>
+    <t>Rule Engine Backend</t>
+  </si>
+  <si>
+    <t>Implement validation engine</t>
+  </si>
+  <si>
+    <t>Rule execution supported</t>
+  </si>
+  <si>
+    <t>Rule chaining &amp; conditions</t>
+  </si>
+  <si>
+    <t>Complex validations supported</t>
+  </si>
+  <si>
+    <t>Engine Ready</t>
+  </si>
+  <si>
+    <t>Validation UI</t>
+  </si>
+  <si>
+    <t>Rule configuration UI</t>
+  </si>
+  <si>
+    <t>Rule setup UI ready</t>
+  </si>
+  <si>
+    <t>Rule preview &amp; testing UI</t>
+  </si>
+  <si>
+    <t>Rule testing enabled</t>
+  </si>
+  <si>
+    <t>Config UI Ready</t>
+  </si>
+  <si>
+    <t>Backend rule testing</t>
+  </si>
+  <si>
+    <t>Rules verified</t>
+  </si>
+  <si>
+    <t>UI rule integration</t>
+  </si>
+  <si>
+    <t>QA Validation Execution</t>
+  </si>
+  <si>
+    <t>Run validation scenarios</t>
+  </si>
+  <si>
+    <t>Rule engine stabilized</t>
+  </si>
+  <si>
+    <t>Module 7: Test Pack &amp; Scheduling</t>
+  </si>
+  <si>
+    <t>Understand scheduling requirements</t>
+  </si>
+  <si>
+    <t>Scheduling flow defined</t>
+  </si>
+  <si>
+    <t>Module 6 Complete</t>
+  </si>
+  <si>
+    <t>Define test pack structure</t>
+  </si>
+  <si>
+    <t>Pack hierarchy finalized</t>
+  </si>
+  <si>
+    <t>Scheduler Backend</t>
+  </si>
+  <si>
+    <t>Implement scheduler core</t>
+  </si>
+  <si>
+    <t>Time-based execution supported</t>
+  </si>
+  <si>
+    <t>Cron &amp; trigger handling</t>
+  </si>
+  <si>
+    <t>Scheduled triggers working</t>
+  </si>
+  <si>
+    <t>Test Pack UI</t>
+  </si>
+  <si>
+    <t>Create test pack UI</t>
+  </si>
+  <si>
+    <t>Pack creation supported</t>
+  </si>
+  <si>
+    <t>Schedule execution UI</t>
+  </si>
+  <si>
+    <t>Schedule configuration supported</t>
+  </si>
+  <si>
+    <t>Pack UI Ready</t>
+  </si>
+  <si>
+    <t>Backend scheduler tests</t>
+  </si>
+  <si>
+    <t>Scheduler verified</t>
+  </si>
+  <si>
+    <t>UI scheduler integration</t>
+  </si>
+  <si>
+    <t>UI + backend synced</t>
+  </si>
+  <si>
+    <t>Execute scheduling scenarios</t>
+  </si>
+  <si>
+    <t>Scheduler stabilized</t>
+  </si>
+  <si>
+    <t>Module 8: HTML Report &amp; Audit</t>
+  </si>
+  <si>
+    <t>Define reporting requirements</t>
+  </si>
+  <si>
+    <t>Report metrics finalized</t>
+  </si>
+  <si>
+    <t>Module 7 Complete</t>
+  </si>
+  <si>
+    <t>Define audit trail structure</t>
+  </si>
+  <si>
+    <t>Audit model approved</t>
+  </si>
+  <si>
+    <t>Reporting Backend</t>
+  </si>
+  <si>
+    <t>Generate execution reports</t>
+  </si>
+  <si>
+    <t>HTML reports generated</t>
+  </si>
+  <si>
+    <t>Audit Backend</t>
+  </si>
+  <si>
+    <t>Persist audit logs</t>
+  </si>
+  <si>
+    <t>Audit trail captured</t>
+  </si>
+  <si>
+    <t>Backend Impl</t>
+  </si>
+  <si>
+    <t>Report UI</t>
+  </si>
+  <si>
+    <t>Report viewer UI</t>
+  </si>
+  <si>
+    <t>Report viewing enabled</t>
+  </si>
+  <si>
+    <t>Export &amp; download UI</t>
+  </si>
+  <si>
+    <t>Export supported</t>
+  </si>
+  <si>
+    <t>Viewer Ready</t>
+  </si>
+  <si>
+    <t>Backend report tests</t>
+  </si>
+  <si>
+    <t>Reports verified</t>
+  </si>
+  <si>
+    <t>UI report integration</t>
+  </si>
+  <si>
+    <t>Execute reporting scenarios</t>
+  </si>
+  <si>
+    <t>Reporting stabilized</t>
+  </si>
+  <si>
+    <t>Module 9: Execution Dashboard</t>
+  </si>
+  <si>
+    <t>Define dashboard KPIs</t>
+  </si>
+  <si>
+    <t>Metrics finalized</t>
+  </si>
+  <si>
+    <t>Module 8 Complete</t>
+  </si>
+  <si>
+    <t>Dashboard Backend</t>
+  </si>
+  <si>
+    <t>Expose execution metrics APIs</t>
+  </si>
+  <si>
+    <t>Dashboard APIs ready</t>
+  </si>
+  <si>
+    <t>Dashboard UI</t>
+  </si>
+  <si>
+    <t>Execution dashboard UI</t>
+  </si>
+  <si>
+    <t>Dashboard rendered</t>
+  </si>
+  <si>
+    <t>Backend metric validation</t>
+  </si>
+  <si>
+    <t>Metrics verified</t>
+  </si>
+  <si>
+    <t>UI dashboard integration</t>
+  </si>
+  <si>
+    <t>Execute dashboard scenarios</t>
+  </si>
+  <si>
+    <t>Dashboard stabilized</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1037,43 +1628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1090,14 +1644,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1106,22 +1657,10 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2519,15 +3058,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB212B-7EE5-4CCE-A35A-15599CD10061}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B137" sqref="A1:J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.109375" bestFit="1" customWidth="1"/>
@@ -2568,2191 +3107,4869 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46028</v>
+      </c>
+      <c r="J2" s="5">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5">
+        <v>46030</v>
+      </c>
+      <c r="J3" s="5">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="5">
+        <v>46037</v>
+      </c>
+      <c r="J4" s="5">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="5">
+        <v>46042</v>
+      </c>
+      <c r="J5" s="5">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="5">
+        <v>46045</v>
+      </c>
+      <c r="J6" s="5">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="5">
+        <v>46028</v>
+      </c>
+      <c r="J7" s="5">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="5">
+        <v>46030</v>
+      </c>
+      <c r="J8" s="5">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="5">
+        <v>46028</v>
+      </c>
+      <c r="J9" s="5">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="5">
+        <v>46029</v>
+      </c>
+      <c r="J10" s="5">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="5">
+        <v>46055</v>
+      </c>
+      <c r="J11" s="5">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="5">
+        <v>46056</v>
+      </c>
+      <c r="J12" s="5">
+        <v>46056</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46057</v>
+      </c>
+      <c r="J13" s="5">
+        <v>46058</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="5">
+        <v>46059</v>
+      </c>
+      <c r="J14" s="5">
+        <v>46059</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="5">
+        <v>46062</v>
+      </c>
+      <c r="J15" s="5">
+        <v>46062</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="5">
+        <v>46055</v>
+      </c>
+      <c r="J16" s="5">
+        <v>46055</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="5">
+        <v>46056</v>
+      </c>
+      <c r="J17" s="5">
+        <v>46057</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="5">
+        <v>46058</v>
+      </c>
+      <c r="J18" s="5">
+        <v>46058</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="5">
+        <v>46059</v>
+      </c>
+      <c r="J19" s="5">
+        <v>46059</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="5">
+        <v>46063</v>
+      </c>
+      <c r="J20" s="5">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="5">
+        <v>46064</v>
+      </c>
+      <c r="J21" s="5">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="5">
+        <v>46065</v>
+      </c>
+      <c r="J22" s="5">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="5">
+        <v>46066</v>
+      </c>
+      <c r="J23" s="5">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="5">
+        <v>46070</v>
+      </c>
+      <c r="J24" s="5">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="5">
+        <v>46072</v>
+      </c>
+      <c r="J25" s="5">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="5">
+        <v>46073</v>
+      </c>
+      <c r="J26" s="5">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="5">
+        <v>46074</v>
+      </c>
+      <c r="J27" s="5">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="5">
+        <v>46077</v>
+      </c>
+      <c r="J28" s="5">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="5">
+        <v>46078</v>
+      </c>
+      <c r="J29" s="5">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I30" s="5">
+        <v>46080</v>
+      </c>
+      <c r="J30" s="5">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="5">
+        <v>46071</v>
+      </c>
+      <c r="J31" s="5">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="5">
+        <v>46072</v>
+      </c>
+      <c r="J32" s="5">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="5">
+        <v>46074</v>
+      </c>
+      <c r="J33" s="5">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="5">
+        <v>46075</v>
+      </c>
+      <c r="J34" s="5">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="5">
+        <v>46071</v>
+      </c>
+      <c r="J35" s="5">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="5">
+        <v>46073</v>
+      </c>
+      <c r="J36" s="5">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="5">
+        <v>46077</v>
+      </c>
+      <c r="J37" s="5">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="5">
+        <v>46078</v>
+      </c>
+      <c r="J38" s="5">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="5">
+        <v>46084</v>
+      </c>
+      <c r="J39" s="5">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="5">
+        <v>46086</v>
+      </c>
+      <c r="J40" s="5">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="5">
+        <v>46085</v>
+      </c>
+      <c r="J41" s="5">
+        <v>46090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="5">
+        <v>46091</v>
+      </c>
+      <c r="J42" s="5">
+        <v>46092</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="5">
+        <v>46093</v>
+      </c>
+      <c r="J43" s="5">
+        <v>46093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="5">
+        <v>46094</v>
+      </c>
+      <c r="J44" s="5">
+        <v>46094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="5">
+        <v>46097</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="5">
+        <v>46098</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="5">
+        <v>46099</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I48" s="5">
+        <v>46100</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="5">
+        <v>46104</v>
+      </c>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="5">
+        <v>46105</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="5">
+        <v>46107</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="5">
+        <v>46108</v>
+      </c>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="5">
+        <v>46111</v>
+      </c>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="5">
+        <v>46112</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="5">
+        <v>46113</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="5">
+        <v>46114</v>
+      </c>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="5">
+        <v>46115</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="5">
+        <v>46118</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="5">
+        <v>46119</v>
+      </c>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="5">
+        <v>46120</v>
+      </c>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="5">
+        <v>46104</v>
+      </c>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="5">
+        <v>46105</v>
+      </c>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="5">
+        <v>46107</v>
+      </c>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="5">
+        <v>46108</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="5">
+        <v>46111</v>
+      </c>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="5">
+        <v>46105</v>
+      </c>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67" s="5">
+        <v>46107</v>
+      </c>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="5">
+        <v>46111</v>
+      </c>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="5">
+        <v>46112</v>
+      </c>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="5">
+        <v>46121</v>
+      </c>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" s="5">
+        <v>46125</v>
+      </c>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" s="5">
+        <v>46127</v>
+      </c>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="5">
+        <v>46129</v>
+      </c>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="5">
+        <v>46133</v>
+      </c>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="5">
+        <v>46135</v>
+      </c>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="5">
+        <v>46136</v>
+      </c>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" s="5">
+        <v>46136</v>
+      </c>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="5">
+        <v>46139</v>
+      </c>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="5">
+        <v>46140</v>
+      </c>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" s="5">
+        <v>46097</v>
+      </c>
+      <c r="J80" s="5">
+        <v>46097</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="5">
+        <v>46098</v>
+      </c>
+      <c r="J81" s="5">
+        <v>46098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="5">
+        <v>46099</v>
+      </c>
+      <c r="J82" s="5">
+        <v>46099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" s="5">
+        <v>46100</v>
+      </c>
+      <c r="J83" s="5">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I84" s="5">
+        <v>46102</v>
+      </c>
+      <c r="J84" s="5">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I85" s="5">
+        <v>46103</v>
+      </c>
+      <c r="J85" s="5">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="5">
+        <v>46104</v>
+      </c>
+      <c r="J86" s="5">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="5">
+        <v>46100</v>
+      </c>
+      <c r="J87" s="5">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="5">
+        <v>46102</v>
+      </c>
+      <c r="J88" s="5">
+        <v>46103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="5">
+        <v>46104</v>
+      </c>
+      <c r="J89" s="5">
+        <v>46104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I90" s="5">
+        <v>46105</v>
+      </c>
+      <c r="J90" s="5">
+        <v>46105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="5">
+        <v>46106</v>
+      </c>
+      <c r="J91" s="5">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92" s="5">
+        <v>46107</v>
+      </c>
+      <c r="J92" s="5">
+        <v>46108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G93" s="4">
+        <v>3</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" s="5">
+        <v>46109</v>
+      </c>
+      <c r="J93" s="5">
+        <v>46111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I94" s="5">
+        <v>46112</v>
+      </c>
+      <c r="J94" s="5">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="5">
+        <v>46113</v>
+      </c>
+      <c r="J95" s="5">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" s="5">
+        <v>46114</v>
+      </c>
+      <c r="J96" s="5">
+        <v>46114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I97" s="5">
+        <v>46115</v>
+      </c>
+      <c r="J97" s="5">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I98" s="5">
+        <v>46118</v>
+      </c>
+      <c r="J98" s="5">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I99" s="5">
+        <v>46119</v>
+      </c>
+      <c r="J99" s="5">
+        <v>46119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="5">
+        <v>46120</v>
+      </c>
+      <c r="J100" s="5">
+        <v>46121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" s="5">
+        <v>46122</v>
+      </c>
+      <c r="J101" s="5">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102" s="4">
+        <v>2</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I102" s="5">
+        <v>46125</v>
+      </c>
+      <c r="J102" s="5">
+        <v>46126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I103" s="5">
+        <v>46127</v>
+      </c>
+      <c r="J103" s="5">
+        <v>46128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I104" s="5">
+        <v>46129</v>
+      </c>
+      <c r="J104" s="5">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="5">
+        <v>46125</v>
+      </c>
+      <c r="J105" s="5">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="5">
+        <v>46126</v>
+      </c>
+      <c r="J106" s="5">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" s="5">
+        <v>46132</v>
+      </c>
+      <c r="J107" s="5">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" s="5">
+        <v>46133</v>
+      </c>
+      <c r="J108" s="5">
+        <v>46133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I109" s="5">
+        <v>46134</v>
+      </c>
+      <c r="J109" s="5">
+        <v>46136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I110" s="5">
+        <v>46139</v>
+      </c>
+      <c r="J110" s="5">
+        <v>46139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="5">
+        <v>46140</v>
+      </c>
+      <c r="J111" s="5">
+        <v>46140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I112" s="5">
+        <v>46141</v>
+      </c>
+      <c r="J112" s="5">
+        <v>46141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I113" s="5">
+        <v>46142</v>
+      </c>
+      <c r="J113" s="5">
+        <v>46142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="5">
+        <v>46143</v>
+      </c>
+      <c r="J114" s="5">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="4">
+        <v>3</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="5">
+        <v>46146</v>
+      </c>
+      <c r="J115" s="5">
+        <v>46148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G116" s="4">
+        <v>2</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="5">
+        <v>46149</v>
+      </c>
+      <c r="J116" s="5">
+        <v>46150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G117" s="4">
+        <v>2</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="5">
+        <v>46146</v>
+      </c>
+      <c r="J117" s="5">
+        <v>46147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G118" s="4">
+        <v>2</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I118" s="5">
+        <v>46148</v>
+      </c>
+      <c r="J118" s="5">
+        <v>46149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I119" s="5">
+        <v>46153</v>
+      </c>
+      <c r="J119" s="5">
+        <v>46153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="5">
+        <v>46154</v>
+      </c>
+      <c r="J120" s="5">
+        <v>46154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G121" s="4">
+        <v>3</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121" s="5">
+        <v>46155</v>
+      </c>
+      <c r="J121" s="5">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" s="5">
+        <v>46160</v>
+      </c>
+      <c r="J122" s="5">
+        <v>46160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="5">
+        <v>46161</v>
+      </c>
+      <c r="J123" s="5">
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I124" s="5">
+        <v>46162</v>
+      </c>
+      <c r="J124" s="5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I125" s="5">
+        <v>46163</v>
+      </c>
+      <c r="J125" s="5">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I126" s="5">
+        <v>46164</v>
+      </c>
+      <c r="J126" s="5">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G127" s="4">
+        <v>3</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I127" s="5">
+        <v>46167</v>
+      </c>
+      <c r="J127" s="5">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I128" s="5">
+        <v>46170</v>
+      </c>
+      <c r="J128" s="5">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" s="4">
+        <v>3</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="5">
+        <v>46167</v>
+      </c>
+      <c r="J129" s="5">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G130" s="4">
+        <v>2</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="5">
+        <v>46170</v>
+      </c>
+      <c r="J130" s="5">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I131" s="5">
+        <v>46174</v>
+      </c>
+      <c r="J131" s="5">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132" s="5">
+        <v>46175</v>
+      </c>
+      <c r="J132" s="5">
+        <v>46175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G133" s="4">
+        <v>3</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I133" s="5">
+        <v>46176</v>
+      </c>
+      <c r="J133" s="5">
+        <v>46178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I134" s="5">
+        <v>46181</v>
+      </c>
+      <c r="J134" s="5">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="5">
+        <v>46182</v>
+      </c>
+      <c r="J135" s="5">
+        <v>46182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I136" s="5">
+        <v>46183</v>
+      </c>
+      <c r="J136" s="5">
+        <v>46183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I137" s="5">
+        <v>46184</v>
+      </c>
+      <c r="J137" s="5">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I138" s="5">
+        <v>46185</v>
+      </c>
+      <c r="J138" s="5">
+        <v>46185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G139" s="4">
+        <v>3</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I139" s="5">
+        <v>46188</v>
+      </c>
+      <c r="J139" s="5">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G140" s="4">
+        <v>2</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I140" s="5">
+        <v>46191</v>
+      </c>
+      <c r="J140" s="5">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G141" s="4">
+        <v>2</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="5">
+        <v>46188</v>
+      </c>
+      <c r="J141" s="5">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G142" s="4">
+        <v>2</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="5">
+        <v>46190</v>
+      </c>
+      <c r="J142" s="5">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I143" s="5">
+        <v>46195</v>
+      </c>
+      <c r="J143" s="5">
+        <v>46195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" s="5">
+        <v>46196</v>
+      </c>
+      <c r="J144" s="5">
+        <v>46196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G145" s="4">
+        <v>3</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145" s="5">
+        <v>46197</v>
+      </c>
+      <c r="J145" s="5">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I146" s="5">
+        <v>46202</v>
+      </c>
+      <c r="J146" s="5">
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="5">
+        <v>46203</v>
+      </c>
+      <c r="J147" s="5">
+        <v>46203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I148" s="5">
+        <v>46204</v>
+      </c>
+      <c r="J148" s="5">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G149" s="4">
+        <v>1</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I149" s="5">
+        <v>46205</v>
+      </c>
+      <c r="J149" s="5">
+        <v>46205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I150" s="5">
+        <v>46206</v>
+      </c>
+      <c r="J150" s="5">
+        <v>46206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G151" s="4">
+        <v>3</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I151" s="5">
+        <v>46209</v>
+      </c>
+      <c r="J151" s="5">
+        <v>46211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G152" s="4">
+        <v>2</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I152" s="5">
+        <v>46212</v>
+      </c>
+      <c r="J152" s="5">
+        <v>46213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G153" s="4">
+        <v>2</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153" s="5">
+        <v>46209</v>
+      </c>
+      <c r="J153" s="5">
+        <v>46210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G154" s="4">
+        <v>2</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I154" s="5">
+        <v>46211</v>
+      </c>
+      <c r="J154" s="5">
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I155" s="5">
+        <v>46216</v>
+      </c>
+      <c r="J155" s="5">
+        <v>46216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G156" s="4">
+        <v>1</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I156" s="5">
+        <v>46217</v>
+      </c>
+      <c r="J156" s="5">
+        <v>46217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G157" s="4">
+        <v>3</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157" s="5">
+        <v>46218</v>
+      </c>
+      <c r="J157" s="5">
+        <v>46220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G158" s="4">
+        <v>1</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I158" s="5">
+        <v>46223</v>
+      </c>
+      <c r="J158" s="5">
+        <v>46223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I159" s="5">
+        <v>46224</v>
+      </c>
+      <c r="J159" s="5">
+        <v>46224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G160" s="4">
+        <v>1</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I160" s="5">
+        <v>46225</v>
+      </c>
+      <c r="J160" s="5">
+        <v>46225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G161" s="4">
+        <v>1</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I161" s="5">
+        <v>46226</v>
+      </c>
+      <c r="J161" s="5">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G162" s="4">
+        <v>3</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I162" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J162" s="5">
+        <v>46231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G163" s="4">
+        <v>4</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I163" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J163" s="5">
+        <v>46232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G164" s="4">
+        <v>1</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I164" s="5">
+        <v>46233</v>
+      </c>
+      <c r="J164" s="5">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G165" s="4">
+        <v>1</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I165" s="5">
+        <v>46234</v>
+      </c>
+      <c r="J165" s="5">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G166" s="4">
+        <v>3</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166" s="5">
+        <v>46237</v>
+      </c>
+      <c r="J166" s="5">
+        <v>46239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G167" s="4">
+        <v>1</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I167" s="5">
+        <v>46240</v>
+      </c>
+      <c r="J167" s="5">
+        <v>46240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G168" s="4">
+        <v>1</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I168" s="5">
+        <v>46241</v>
+      </c>
+      <c r="J168" s="5">
+        <v>46241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="6">
-        <v>46028</v>
-      </c>
-      <c r="J2" s="6">
-        <v>46029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6">
-        <v>46030</v>
-      </c>
-      <c r="J3" s="6">
-        <v>46036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="6">
-        <v>46037</v>
-      </c>
-      <c r="J4" s="6">
-        <v>46041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="6">
-        <v>46042</v>
-      </c>
-      <c r="J5" s="6">
-        <v>46044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" s="6">
-        <v>46045</v>
-      </c>
-      <c r="J6" s="6">
-        <v>46045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" s="6">
-        <v>46028</v>
-      </c>
-      <c r="J7" s="6">
-        <v>46029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I8" s="6">
-        <v>46030</v>
-      </c>
-      <c r="J8" s="6">
-        <v>46034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I9" s="6">
-        <v>46028</v>
-      </c>
-      <c r="J9" s="6">
-        <v>46028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I10" s="6">
-        <v>46029</v>
-      </c>
-      <c r="J10" s="6">
-        <v>46030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="6">
-        <v>46055</v>
-      </c>
-      <c r="J11" s="6">
-        <v>46055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="6">
-        <v>46056</v>
-      </c>
-      <c r="J12" s="6">
-        <v>46056</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="6">
-        <v>46057</v>
-      </c>
-      <c r="J13" s="6">
-        <v>46058</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="6">
-        <v>46059</v>
-      </c>
-      <c r="J14" s="6">
-        <v>46059</v>
-      </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="6">
-        <v>46062</v>
-      </c>
-      <c r="J15" s="6">
-        <v>46062</v>
-      </c>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="6">
-        <v>46055</v>
-      </c>
-      <c r="J16" s="6">
-        <v>46055</v>
-      </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="6">
-        <v>46056</v>
-      </c>
-      <c r="J17" s="6">
-        <v>46057</v>
-      </c>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="6">
-        <v>46058</v>
-      </c>
-      <c r="J18" s="6">
-        <v>46058</v>
-      </c>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="6">
-        <v>46059</v>
-      </c>
-      <c r="J19" s="6">
-        <v>46059</v>
-      </c>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" s="12">
-        <v>46063</v>
-      </c>
-      <c r="J20" s="12">
-        <v>46063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="6">
-        <v>46064</v>
-      </c>
-      <c r="J21" s="6">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I22" s="6">
-        <v>46065</v>
-      </c>
-      <c r="J22" s="6">
-        <v>46065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="6">
-        <v>46066</v>
-      </c>
-      <c r="J23" s="6">
-        <v>46069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="5">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I24" s="6">
-        <v>46070</v>
-      </c>
-      <c r="J24" s="6">
-        <v>46071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="6">
-        <v>46072</v>
-      </c>
-      <c r="J25" s="6">
-        <v>46072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I26" s="6">
-        <v>46073</v>
-      </c>
-      <c r="J26" s="6">
-        <v>46073</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="6">
-        <v>46074</v>
-      </c>
-      <c r="J27" s="6">
-        <v>46074</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I28" s="6">
-        <v>46077</v>
-      </c>
-      <c r="J28" s="6">
-        <v>46077</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="6">
-        <v>46078</v>
-      </c>
-      <c r="J29" s="6">
-        <v>46079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="I30" s="6">
-        <v>46080</v>
-      </c>
-      <c r="J30" s="6">
-        <v>46083</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="6">
-        <v>46071</v>
-      </c>
-      <c r="J31" s="6">
-        <v>46071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="5">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="6">
-        <v>46072</v>
-      </c>
-      <c r="J32" s="6">
-        <v>46073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="6">
-        <v>46074</v>
-      </c>
-      <c r="J33" s="6">
-        <v>46074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="6">
-        <v>46075</v>
-      </c>
-      <c r="J34" s="6">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D169" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="5">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="6">
-        <v>46071</v>
-      </c>
-      <c r="J35" s="6">
-        <v>46072</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="5">
-        <v>2</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="6">
-        <v>46073</v>
-      </c>
-      <c r="J36" s="6">
-        <v>46076</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="6">
-        <v>46077</v>
-      </c>
-      <c r="J37" s="6">
-        <v>46077</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="6">
-        <v>46078</v>
-      </c>
-      <c r="J38" s="6">
-        <v>46078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="5">
-        <v>2</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="6">
-        <v>46084</v>
-      </c>
-      <c r="J39" s="6">
-        <v>46085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="5">
-        <v>2</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="6">
-        <v>46086</v>
-      </c>
-      <c r="J40" s="6">
-        <v>46087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="5">
-        <v>4</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="6">
-        <v>46085</v>
-      </c>
-      <c r="J41" s="6">
-        <v>46090</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="5">
-        <v>2</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="6">
-        <v>46091</v>
-      </c>
-      <c r="J42" s="6">
-        <v>46092</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="F169" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="G169" s="4">
+        <v>1</v>
+      </c>
+      <c r="H169" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="6">
-        <v>46093</v>
-      </c>
-      <c r="J43" s="6">
-        <v>46093</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" s="6">
-        <v>46094</v>
-      </c>
-      <c r="J44" s="6">
-        <v>46094</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="6">
-        <v>46097</v>
-      </c>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="6">
-        <v>46098</v>
-      </c>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" s="6">
-        <v>46099</v>
-      </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="5">
-        <v>2</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I48" s="6">
-        <v>46100</v>
-      </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="6">
-        <v>46104</v>
-      </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="5">
-        <v>2</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="6">
-        <v>46105</v>
-      </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="6">
-        <v>46107</v>
-      </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="6">
-        <v>46108</v>
-      </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="6">
-        <v>46111</v>
-      </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" s="6">
-        <v>46112</v>
-      </c>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="6">
-        <v>46113</v>
-      </c>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="6">
-        <v>46114</v>
-      </c>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I57" s="6">
-        <v>46115</v>
-      </c>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="6">
-        <v>46118</v>
-      </c>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="6">
-        <v>46119</v>
-      </c>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I60" s="6">
-        <v>46120</v>
-      </c>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I61" s="6">
-        <v>46104</v>
-      </c>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="5">
-        <v>2</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="6">
-        <v>46105</v>
-      </c>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="5">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="6">
-        <v>46107</v>
-      </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I64" s="6">
-        <v>46108</v>
-      </c>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I65" s="6">
-        <v>46111</v>
-      </c>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="5">
-        <v>2</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="6">
-        <v>46105</v>
-      </c>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="5">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I67" s="6">
-        <v>46107</v>
-      </c>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="5">
-        <v>1</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I68" s="6">
-        <v>46111</v>
-      </c>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I69" s="6">
-        <v>46112</v>
-      </c>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" s="5">
-        <v>2</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I70" s="6">
-        <v>46121</v>
-      </c>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G71" s="5">
-        <v>2</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I71" s="6">
-        <v>46125</v>
-      </c>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G72" s="5">
-        <v>2</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I72" s="6">
-        <v>46127</v>
-      </c>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" s="5">
-        <v>2</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I73" s="6">
-        <v>46129</v>
-      </c>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" s="6">
-        <v>46133</v>
-      </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="5">
-        <v>2</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I75" s="6">
-        <v>46135</v>
-      </c>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I76" s="6">
-        <v>46136</v>
-      </c>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I77" s="6">
-        <v>46136</v>
-      </c>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I78" s="6">
-        <v>46139</v>
-      </c>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" s="6">
-        <v>46140</v>
-      </c>
-      <c r="J79" s="5"/>
+      <c r="I169" s="5">
+        <v>46244</v>
+      </c>
+      <c r="J169" s="5">
+        <v>46244</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="67">
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A161:A169"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A137:A148"/>
+    <mergeCell ref="A149:A160"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A80:A97"/>
+    <mergeCell ref="A98:A112"/>
+    <mergeCell ref="A113:A124"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
     <mergeCell ref="A20:A44"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B9:B10"/>
@@ -4818,7 +8035,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -4850,7 +8067,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -4882,7 +8099,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4914,7 +8131,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4946,7 +8163,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5010,7 +8227,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -5042,7 +8259,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5138,7 +8355,7 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -5170,7 +8387,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -5202,7 +8419,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -5266,7 +8483,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -5519,7 +8736,7 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
@@ -5551,10 +8768,10 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -5583,16 +8800,16 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -5644,13 +8861,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -5676,13 +8893,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -5714,7 +8931,7 @@
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>

--- a/Module_1_API_Connector_Plan_Filled.xlsx
+++ b/Module_1_API_Connector_Plan_Filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC6116B-B69C-4BD3-9412-9074B91FFB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096002E-9BD3-4285-846D-4A7F0DFF65B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="704">
   <si>
     <t>Module</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Dev-2 + UI-1</t>
   </si>
   <si>
-    <t>Final approval</t>
-  </si>
-  <si>
     <t>Planned End Date</t>
   </si>
   <si>
@@ -643,9 +640,6 @@
     <t>Test Scenarios Ready</t>
   </si>
   <si>
-    <t>UI stabilized</t>
-  </si>
-  <si>
     <t>Retest Complete</t>
   </si>
   <si>
@@ -679,10 +673,7 @@
     <t>QA Scenario &amp; Execution</t>
   </si>
   <si>
-    <t>Backend fixes</t>
-  </si>
-  <si>
-    <t>UI fixes</t>
+    <t>Final validation</t>
   </si>
   <si>
     <t>Module 5: Test Execution Engine</t>
@@ -706,9 +697,6 @@
     <t>Trigger Ready</t>
   </si>
   <si>
-    <t>UI &amp; backend synced</t>
-  </si>
-  <si>
     <t>QA Execution</t>
   </si>
   <si>
@@ -781,48 +769,9 @@
     <t>Module 9: Execution Dashboard</t>
   </si>
   <si>
-    <t>Define dashboard KPIs</t>
-  </si>
-  <si>
-    <t>Metrics finalized</t>
-  </si>
-  <si>
-    <t>Module 8 Complete</t>
-  </si>
-  <si>
-    <t>Dashboard Backend</t>
-  </si>
-  <si>
-    <t>Expose execution metrics APIs</t>
-  </si>
-  <si>
-    <t>Dashboard APIs ready</t>
-  </si>
-  <si>
     <t>Dashboard UI</t>
   </si>
   <si>
-    <t>Execution dashboard UI</t>
-  </si>
-  <si>
-    <t>Dashboard rendered</t>
-  </si>
-  <si>
-    <t>Backend metric validation</t>
-  </si>
-  <si>
-    <t>Metrics verified</t>
-  </si>
-  <si>
-    <t>UI dashboard integration</t>
-  </si>
-  <si>
-    <t>Execute dashboard scenarios</t>
-  </si>
-  <si>
-    <t>Dashboard stabilized</t>
-  </si>
-  <si>
     <t>Understand business use-cases, payment/validation flows, and how APIs will be connected and executed</t>
   </si>
   <si>
@@ -1793,6 +1742,399 @@
   </si>
   <si>
     <t>Reporting &amp; audit module approved</t>
+  </si>
+  <si>
+    <t>Understand execution visibility requirements and KPIs</t>
+  </si>
+  <si>
+    <t>Clear definition of what execution metrics users need to monitor</t>
+  </si>
+  <si>
+    <t>QA + Dev-1 + UI-1</t>
+  </si>
+  <si>
+    <t>Define dashboard layout and data sources</t>
+  </si>
+  <si>
+    <t>Approved dashboard structure and data mapping</t>
+  </si>
+  <si>
+    <t>Requirement Finalized</t>
+  </si>
+  <si>
+    <t>Backend APIs</t>
+  </si>
+  <si>
+    <t>Build APIs to fetch execution status and metrics</t>
+  </si>
+  <si>
+    <t>Backend exposes real-time execution data</t>
+  </si>
+  <si>
+    <t>Execution Engine</t>
+  </si>
+  <si>
+    <t>Build execution dashboard UI</t>
+  </si>
+  <si>
+    <t>Users can visually monitor executions in real time</t>
+  </si>
+  <si>
+    <t>Validate backend APIs and UI integration</t>
+  </si>
+  <si>
+    <t>Dashboard data is accurate and stable</t>
+  </si>
+  <si>
+    <t>UI Complete</t>
+  </si>
+  <si>
+    <t>Execute dashboard validation scenarios</t>
+  </si>
+  <si>
+    <t>Dashboard functionality verified under QA</t>
+  </si>
+  <si>
+    <t>Fix backend and UI issues identified</t>
+  </si>
+  <si>
+    <t>Stable and reliable execution dashboard</t>
+  </si>
+  <si>
+    <t>Retest and approve execution dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard approved for release</t>
+  </si>
+  <si>
+    <t>Module 10: Test Coverage Dashboard</t>
+  </si>
+  <si>
+    <t>Understand test coverage reporting requirements</t>
+  </si>
+  <si>
+    <t>Clear definition of coverage metrics and dimensions</t>
+  </si>
+  <si>
+    <t>Test Case Mgmt Ready</t>
+  </si>
+  <si>
+    <t>Define coverage calculation logic</t>
+  </si>
+  <si>
+    <t>Standardized method to compute coverage</t>
+  </si>
+  <si>
+    <t>Build APIs to calculate and fetch coverage data</t>
+  </si>
+  <si>
+    <t>Backend provides accurate coverage metrics</t>
+  </si>
+  <si>
+    <t>Coverage Logic Defined</t>
+  </si>
+  <si>
+    <t>Build coverage dashboard UI</t>
+  </si>
+  <si>
+    <t>Users can view coverage by environment, status, and tags</t>
+  </si>
+  <si>
+    <t>Validate coverage logic and UI display</t>
+  </si>
+  <si>
+    <t>Coverage metrics verified end-to-end</t>
+  </si>
+  <si>
+    <t>Execute coverage validation scenarios</t>
+  </si>
+  <si>
+    <t>Coverage dashboard validated under QA</t>
+  </si>
+  <si>
+    <t>Fix defects and improve visuals</t>
+  </si>
+  <si>
+    <t>Coverage dashboard stabilized</t>
+  </si>
+  <si>
+    <t>Final QA approval</t>
+  </si>
+  <si>
+    <t>Coverage dashboard approved</t>
+  </si>
+  <si>
+    <t>Module 11: Health Check &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>Define health and monitoring requirements</t>
+  </si>
+  <si>
+    <t>Clear criteria for system health defined</t>
+  </si>
+  <si>
+    <t>Core Modules Ready</t>
+  </si>
+  <si>
+    <t>Dev-1 + DevOps</t>
+  </si>
+  <si>
+    <t>Monitoring Backend</t>
+  </si>
+  <si>
+    <t>Implement service health check APIs</t>
+  </si>
+  <si>
+    <t>System exposes health endpoints</t>
+  </si>
+  <si>
+    <t>Implement performance and failure monitoring</t>
+  </si>
+  <si>
+    <t>Runtime issues can be detected proactively</t>
+  </si>
+  <si>
+    <t>Health APIs</t>
+  </si>
+  <si>
+    <t>Monitoring UI</t>
+  </si>
+  <si>
+    <t>Build UI to visualize system health</t>
+  </si>
+  <si>
+    <t>Users can see real-time system health</t>
+  </si>
+  <si>
+    <t>Validate monitoring flow</t>
+  </si>
+  <si>
+    <t>Monitoring works reliably</t>
+  </si>
+  <si>
+    <t>Execute monitoring scenarios</t>
+  </si>
+  <si>
+    <t>Monitoring validated under QA</t>
+  </si>
+  <si>
+    <t>Fix monitoring defects</t>
+  </si>
+  <si>
+    <t>Monitoring stabilized</t>
+  </si>
+  <si>
+    <t>Monitoring approved</t>
+  </si>
+  <si>
+    <t>Module 12: User Management &amp; Security</t>
+  </si>
+  <si>
+    <t>Understand user roles and access control needs</t>
+  </si>
+  <si>
+    <t>Clear definition of roles and permissions</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Platform Ready</t>
+  </si>
+  <si>
+    <t>Dev-1 + QA</t>
+  </si>
+  <si>
+    <t>Backend Security</t>
+  </si>
+  <si>
+    <t>Implement role-based access control</t>
+  </si>
+  <si>
+    <t>Secure access enforced across platform</t>
+  </si>
+  <si>
+    <t>Implement user authentication &amp; authorization</t>
+  </si>
+  <si>
+    <t>Secure login and session handling</t>
+  </si>
+  <si>
+    <t>RBAC Ready</t>
+  </si>
+  <si>
+    <t>User Management UI</t>
+  </si>
+  <si>
+    <t>Build UI for user and role management</t>
+  </si>
+  <si>
+    <t>Admins can manage users and roles</t>
+  </si>
+  <si>
+    <t>Validate security and access controls</t>
+  </si>
+  <si>
+    <t>Security flows verified</t>
+  </si>
+  <si>
+    <t>Execute security test scenarios</t>
+  </si>
+  <si>
+    <t>Security validated under QA</t>
+  </si>
+  <si>
+    <t>Fix security and UI issues</t>
+  </si>
+  <si>
+    <t>Secure and stable access control</t>
+  </si>
+  <si>
+    <t>Security module approved</t>
+  </si>
+  <si>
+    <t>Module 13: Configuration Master Data</t>
+  </si>
+  <si>
+    <t>Identify master configuration entities</t>
+  </si>
+  <si>
+    <t>Clear list of configurable master data</t>
+  </si>
+  <si>
+    <t>Backend Configuration</t>
+  </si>
+  <si>
+    <t>Implement APIs to manage master data</t>
+  </si>
+  <si>
+    <t>Centralized configuration management</t>
+  </si>
+  <si>
+    <t>Configuration UI</t>
+  </si>
+  <si>
+    <t>Build UI for managing master configurations</t>
+  </si>
+  <si>
+    <t>Users can manage configuration data easily</t>
+  </si>
+  <si>
+    <t>Validate configuration flow</t>
+  </si>
+  <si>
+    <t>Configuration changes applied correctly</t>
+  </si>
+  <si>
+    <t>Execute configuration scenarios</t>
+  </si>
+  <si>
+    <t>Configuration validated under QA</t>
+  </si>
+  <si>
+    <t>Fix configuration-related defects</t>
+  </si>
+  <si>
+    <t>Configuration stabilized</t>
+  </si>
+  <si>
+    <t>Final QA sign-off</t>
+  </si>
+  <si>
+    <t>Configuration module approved</t>
+  </si>
+  <si>
+    <t>Pre-Regression Smoke</t>
+  </si>
+  <si>
+    <t>Execute smoke test suite across all core modules</t>
+  </si>
+  <si>
+    <t>Quick validation that critical functionalities are working after final integrations</t>
+  </si>
+  <si>
+    <t>All Modules Feature Complete</t>
+  </si>
+  <si>
+    <t>QA-1 + QA-2</t>
+  </si>
+  <si>
+    <t>Validate critical user flows (create, execute, report)</t>
+  </si>
+  <si>
+    <t>Confidence that major user journeys are not broken</t>
+  </si>
+  <si>
+    <t>Smoke Suite Ready</t>
+  </si>
+  <si>
+    <t>End-to-End Regression Testing</t>
+  </si>
+  <si>
+    <t>Execute full regression suite covering all modules</t>
+  </si>
+  <si>
+    <t>End-to-end system stability verified across environments</t>
+  </si>
+  <si>
+    <t>Smoke Passed</t>
+  </si>
+  <si>
+    <t>Validate cross-module integrations and dependencies</t>
+  </si>
+  <si>
+    <t>Confirmation that modules work seamlessly together</t>
+  </si>
+  <si>
+    <t>Regression In Progress</t>
+  </si>
+  <si>
+    <t>E2E Bug Fixing (BE + UI)</t>
+  </si>
+  <si>
+    <t>Fix backend defects identified during regression</t>
+  </si>
+  <si>
+    <t>Backend logic corrected and stabilized</t>
+  </si>
+  <si>
+    <t>Regression Defects</t>
+  </si>
+  <si>
+    <t>Fix UI defects and visual inconsistencies</t>
+  </si>
+  <si>
+    <t>UI behavior aligned with expected user experience</t>
+  </si>
+  <si>
+    <t>Re-validate fixes in integrated environment</t>
+  </si>
+  <si>
+    <t>Confirmation that fixes did not introduce regressions</t>
+  </si>
+  <si>
+    <t>Fixes Implemented</t>
+  </si>
+  <si>
+    <t>Final Retest &amp; Sign-off</t>
+  </si>
+  <si>
+    <t>Execute focused retest on fixed areas</t>
+  </si>
+  <si>
+    <t>Assurance that all critical issues are resolved</t>
+  </si>
+  <si>
+    <t>Perform final release validation and sign-off</t>
+  </si>
+  <si>
+    <t>Formal approval confirming system is ready for production release</t>
+  </si>
+  <si>
+    <t>Retest Passed</t>
+  </si>
+  <si>
+    <t>QA-2 + Stakeholders</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +2178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1860,43 +2202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1913,11 +2218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1936,15 +2241,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3342,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB212B-7EE5-4CCE-A35A-15599CD10061}">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -3391,21 +3688,21 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>55</v>
@@ -3428,12 +3725,12 @@
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>55</v>
@@ -3456,24 +3753,24 @@
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I4" s="9">
         <v>46037</v>
@@ -3484,20 +3781,20 @@
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
-        <v>164</v>
+      <c r="B5" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G5" s="8">
         <v>3</v>
@@ -3514,24 +3811,24 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="I6" s="9">
         <v>46045</v>
@@ -3542,17 +3839,17 @@
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
@@ -3561,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="9">
         <v>46028</v>
@@ -3572,24 +3869,24 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="8">
         <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="9">
         <v>46030</v>
@@ -3600,17 +3897,17 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
-        <v>172</v>
+      <c r="B9" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>14</v>
@@ -3619,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9" s="9">
         <v>46028</v>
@@ -3630,24 +3927,24 @@
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="8">
         <v>2</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" s="9">
         <v>46029</v>
@@ -3658,14 +3955,14 @@
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="10" t="s">
-        <v>176</v>
+      <c r="B11" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>13</v>
@@ -3688,18 +3985,18 @@
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -3717,18 +4014,18 @@
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -3746,18 +4043,18 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -3775,18 +4072,18 @@
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -3804,18 +4101,18 @@
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -3833,18 +4130,18 @@
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="8">
         <v>2</v>
@@ -3862,18 +4159,18 @@
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -3891,18 +4188,18 @@
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -3926,10 +4223,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>13</v>
@@ -3941,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I20" s="9">
         <v>46063</v>
@@ -3954,10 +4251,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>13</v>
@@ -3969,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="9">
         <v>46064</v>
@@ -3982,10 +4279,10 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>13</v>
@@ -3997,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="9">
         <v>46065</v>
@@ -4010,10 +4307,10 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>13</v>
@@ -4025,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I23" s="9">
         <v>46066</v>
@@ -4040,10 +4337,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>13</v>
@@ -4055,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" s="9">
         <v>46070</v>
@@ -4068,10 +4365,10 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>13</v>
@@ -4083,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="9">
         <v>46072</v>
@@ -4096,10 +4393,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>13</v>
@@ -4111,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I26" s="9">
         <v>46073</v>
@@ -4124,10 +4421,10 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>13</v>
@@ -4139,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I27" s="9">
         <v>46074</v>
@@ -4154,10 +4451,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>13</v>
@@ -4169,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="9">
         <v>46077</v>
@@ -4182,10 +4479,10 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>13</v>
@@ -4197,7 +4494,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" s="9">
         <v>46078</v>
@@ -4210,10 +4507,10 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>13</v>
@@ -4225,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I30" s="9">
         <v>46080</v>
@@ -4240,10 +4537,10 @@
         <v>52</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>55</v>
@@ -4268,10 +4565,10 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>55</v>
@@ -4296,10 +4593,10 @@
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>55</v>
@@ -4324,10 +4621,10 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>55</v>
@@ -4354,10 +4651,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>69</v>
@@ -4382,10 +4679,10 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>69</v>
@@ -4412,10 +4709,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>69</v>
@@ -4440,10 +4737,10 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>69</v>
@@ -4470,10 +4767,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>83</v>
@@ -4498,10 +4795,10 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4514,10 +4811,10 @@
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -4530,10 +4827,10 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>83</v>
@@ -4560,10 +4857,10 @@
         <v>90</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>69</v>
@@ -4590,10 +4887,10 @@
         <v>95</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>83</v>
@@ -4618,10 +4915,10 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -4634,10 +4931,10 @@
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -4650,10 +4947,10 @@
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>83</v>
@@ -4680,10 +4977,10 @@
         <v>101</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>69</v>
@@ -4708,10 +5005,10 @@
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>69</v>
@@ -4733,17 +5030,17 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>13</v>
@@ -4755,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9">
         <v>46098</v>
@@ -4763,13 +5060,13 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>13</v>
@@ -4781,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9">
         <v>46099</v>
@@ -4789,13 +5086,13 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>13</v>
@@ -4807,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9">
         <v>46100</v>
@@ -4815,13 +5112,13 @@
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>13</v>
@@ -4841,13 +5138,13 @@
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="8" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>13</v>
@@ -4867,15 +5164,15 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>13</v>
@@ -4895,13 +5192,13 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>13</v>
@@ -4921,13 +5218,13 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>13</v>
@@ -4947,15 +5244,15 @@
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>13</v>
@@ -4975,13 +5272,13 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>13</v>
@@ -5001,19 +5298,19 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G60" s="8">
         <v>1</v>
@@ -5027,21 +5324,21 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" s="8">
         <v>1</v>
@@ -5055,19 +5352,19 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" s="8">
         <v>1</v>
@@ -5081,19 +5378,19 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="8">
         <v>1</v>
@@ -5107,19 +5404,19 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="8" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="8">
         <v>1</v>
@@ -5133,15 +5430,15 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>55</v>
@@ -5161,13 +5458,13 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>55</v>
@@ -5187,13 +5484,13 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>55</v>
@@ -5213,13 +5510,13 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="8" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>55</v>
@@ -5239,13 +5536,13 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="8" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>55</v>
@@ -5265,15 +5562,15 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>69</v>
@@ -5293,13 +5590,13 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="8" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>69</v>
@@ -5319,21 +5616,21 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G72" s="8">
         <v>1</v>
@@ -5347,19 +5644,19 @@
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G73" s="8">
         <v>1</v>
@@ -5373,15 +5670,15 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>83</v>
@@ -5401,19 +5698,19 @@
       <c r="J74" s="8"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" s="8">
         <v>2</v>
@@ -5427,19 +5724,19 @@
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="8" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G76" s="8">
         <v>2</v>
@@ -5453,15 +5750,15 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>69</v>
@@ -5481,13 +5778,13 @@
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="8" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>69</v>
@@ -5507,15 +5804,15 @@
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10" t="s">
-        <v>385</v>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>83</v>
@@ -5535,13 +5832,13 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>13</v>
@@ -5561,13 +5858,13 @@
       <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>69</v>
@@ -5587,13 +5884,13 @@
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>69</v>
@@ -5613,15 +5910,15 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -5631,13 +5928,13 @@
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -5647,13 +5944,13 @@
       <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -5663,23 +5960,23 @@
       <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="G86" s="8">
         <v>1</v>
@@ -5695,13 +5992,13 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>13</v>
@@ -5723,13 +6020,13 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>55</v>
@@ -5751,15 +6048,15 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10" t="s">
-        <v>195</v>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>13</v>
@@ -5781,19 +6078,19 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G90" s="8">
         <v>1</v>
@@ -5809,19 +6106,19 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G91" s="8">
         <v>1</v>
@@ -5837,19 +6134,19 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G92" s="8">
         <v>1</v>
@@ -5865,15 +6162,15 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="10" t="s">
-        <v>199</v>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>55</v>
@@ -5895,19 +6192,19 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G94" s="8">
         <v>2</v>
@@ -5923,19 +6220,19 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G95" s="8">
         <v>1</v>
@@ -5951,21 +6248,21 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G96" s="8">
         <v>1</v>
@@ -5981,13 +6278,13 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>55</v>
@@ -6009,21 +6306,21 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G98" s="8">
         <v>2</v>
@@ -6039,21 +6336,21 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G99" s="8">
         <v>3</v>
@@ -6069,15 +6366,15 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10" t="s">
-        <v>178</v>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>13</v>
@@ -6099,13 +6396,13 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="8" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>55</v>
@@ -6127,15 +6424,15 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>69</v>
@@ -6157,19 +6454,19 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="8" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G103" s="8">
         <v>1</v>
@@ -6186,22 +6483,22 @@
     </row>
     <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G104" s="8">
         <v>1</v>
@@ -6218,12 +6515,12 @@
     </row>
     <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="12"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="8" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>13</v>
@@ -6246,14 +6543,14 @@
     </row>
     <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="10" t="s">
-        <v>210</v>
+      <c r="B106" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>55</v>
@@ -6276,18 +6573,18 @@
     </row>
     <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="12"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="8" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G107" s="8">
         <v>1</v>
@@ -6304,14 +6601,14 @@
     </row>
     <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="10" t="s">
-        <v>212</v>
+      <c r="B108" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>13</v>
@@ -6334,18 +6631,18 @@
     </row>
     <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
-      <c r="B109" s="11"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="8" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G109" s="8">
         <v>2</v>
@@ -6362,18 +6659,18 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="12"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="8" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" s="8">
         <v>1</v>
@@ -6390,14 +6687,14 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="10" t="s">
-        <v>215</v>
+      <c r="B111" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>55</v>
@@ -6420,18 +6717,18 @@
     </row>
     <row r="112" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="12"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="8" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" s="8">
         <v>2</v>
@@ -6448,20 +6745,20 @@
     </row>
     <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G113" s="8">
         <v>1</v>
@@ -6478,12 +6775,12 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="12"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="8" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>55</v>
@@ -6507,19 +6804,19 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G115" s="8">
         <v>3</v>
@@ -6536,14 +6833,14 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="10" t="s">
-        <v>178</v>
+      <c r="B116" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>13</v>
@@ -6566,12 +6863,12 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="12"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="8" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>55</v>
@@ -6598,10 +6895,10 @@
         <v>101</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>69</v>
@@ -6624,22 +6921,22 @@
     </row>
     <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>193</v>
+        <v>217</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G119" s="8">
         <v>1</v>
@@ -6656,18 +6953,18 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="12"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="8" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G120" s="8">
         <v>1</v>
@@ -6684,14 +6981,14 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="10" t="s">
-        <v>223</v>
+      <c r="B121" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>13</v>
@@ -6714,18 +7011,18 @@
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="12"/>
+      <c r="B122" s="7"/>
       <c r="C122" s="8" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G122" s="8">
         <v>2</v>
@@ -6742,14 +7039,14 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
-      <c r="B123" s="10" t="s">
-        <v>225</v>
+      <c r="B123" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>55</v>
@@ -6772,18 +7069,18 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="12"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="8" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
@@ -6800,20 +7097,20 @@
     </row>
     <row r="125" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G125" s="8">
         <v>1</v>
@@ -6830,12 +7127,12 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="12"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="8" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>55</v>
@@ -6859,19 +7156,19 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G127" s="8">
         <v>3</v>
@@ -6888,14 +7185,14 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="10" t="s">
-        <v>178</v>
+      <c r="B128" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>13</v>
@@ -6918,12 +7215,12 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="12"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="8" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>55</v>
@@ -6950,10 +7247,10 @@
         <v>101</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>69</v>
@@ -6976,22 +7273,22 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>193</v>
+        <v>225</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G131" s="8">
         <v>1</v>
@@ -7008,18 +7305,18 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="12"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="8" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G132" s="8">
         <v>1</v>
@@ -7036,14 +7333,14 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="10" t="s">
-        <v>232</v>
+      <c r="B133" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>13</v>
@@ -7066,18 +7363,18 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="12"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="8" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G134" s="8">
         <v>2</v>
@@ -7094,14 +7391,14 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="10" t="s">
-        <v>234</v>
+      <c r="B135" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>55</v>
@@ -7124,18 +7421,18 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="12"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="8" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G136" s="8">
         <v>2</v>
@@ -7152,20 +7449,20 @@
     </row>
     <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G137" s="8">
         <v>1</v>
@@ -7182,12 +7479,12 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="12"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="8" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>55</v>
@@ -7211,19 +7508,19 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G139" s="8">
         <v>3</v>
@@ -7240,14 +7537,14 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="10" t="s">
-        <v>178</v>
+      <c r="B140" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>13</v>
@@ -7270,12 +7567,12 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="12"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>55</v>
@@ -7302,10 +7599,10 @@
         <v>101</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>69</v>
@@ -7328,22 +7625,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>193</v>
+        <v>233</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G143" s="8">
         <v>1</v>
@@ -7360,12 +7657,12 @@
     </row>
     <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="12"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>13</v>
@@ -7388,14 +7685,14 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="10" t="s">
-        <v>239</v>
+      <c r="B145" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>13</v>
@@ -7418,18 +7715,18 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="12"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G146" s="8">
         <v>2</v>
@@ -7446,14 +7743,14 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="10" t="s">
-        <v>240</v>
+      <c r="B147" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>55</v>
@@ -7476,18 +7773,18 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="12"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="8" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G148" s="8">
         <v>2</v>
@@ -7504,20 +7801,20 @@
     </row>
     <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G149" s="8">
         <v>1</v>
@@ -7534,12 +7831,12 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="12"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="8" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>55</v>
@@ -7566,16 +7863,16 @@
         <v>90</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G151" s="8">
         <v>3</v>
@@ -7592,14 +7889,14 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="10" t="s">
-        <v>178</v>
+      <c r="B152" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>13</v>
@@ -7622,12 +7919,12 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="12"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>55</v>
@@ -7654,10 +7951,10 @@
         <v>101</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>69</v>
@@ -7680,22 +7977,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>193</v>
+        <v>239</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G155" s="8">
         <v>1</v>
@@ -7712,12 +8009,12 @@
     </row>
     <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="12"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>13</v>
@@ -7741,13 +8038,13 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="B157" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>13</v>
@@ -7771,19 +8068,19 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G158" s="8">
         <v>2</v>
@@ -7800,14 +8097,14 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="10" t="s">
-        <v>249</v>
+      <c r="B159" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>55</v>
@@ -7830,18 +8127,18 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="12"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G160" s="8">
         <v>2</v>
@@ -7858,20 +8155,20 @@
     </row>
     <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G161" s="8">
         <v>1</v>
@@ -7888,12 +8185,12 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="12"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="8" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>55</v>
@@ -7920,16 +8217,16 @@
         <v>90</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G163" s="8">
         <v>3</v>
@@ -7946,14 +8243,14 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="10" t="s">
-        <v>178</v>
+      <c r="B164" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>13</v>
@@ -7976,12 +8273,12 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="12"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="8" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>55</v>
@@ -8008,10 +8305,10 @@
         <v>101</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>69</v>
@@ -8032,154 +8329,154 @@
         <v>46225</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>193</v>
+        <v>247</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>252</v>
+        <v>573</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>253</v>
+        <v>574</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="G167" s="8">
         <v>1</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>115</v>
+        <v>575</v>
       </c>
       <c r="I167" s="9">
-        <v>46226</v>
+        <v>46174</v>
       </c>
       <c r="J167" s="9">
-        <v>46226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="B168" s="7"/>
       <c r="C168" s="8" t="s">
-        <v>256</v>
+        <v>576</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>257</v>
+        <v>577</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>117</v>
+        <v>578</v>
       </c>
       <c r="G168" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I168" s="9">
-        <v>46227</v>
+        <v>46175</v>
       </c>
       <c r="J168" s="9">
-        <v>46231</v>
+        <v>46175</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="8" t="s">
-        <v>258</v>
+        <v>579</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>259</v>
+        <v>580</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>260</v>
+        <v>581</v>
       </c>
       <c r="E169" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G169" s="8">
+        <v>2</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I169" s="9">
+        <v>46176</v>
+      </c>
+      <c r="J169" s="9">
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F169" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G169" s="8">
-        <v>4</v>
-      </c>
-      <c r="H169" s="8" t="s">
+      <c r="F170" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G170" s="8">
+        <v>3</v>
+      </c>
+      <c r="H170" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I169" s="9">
-        <v>46227</v>
-      </c>
-      <c r="J169" s="9">
-        <v>46232</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G170" s="8">
-        <v>1</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="I170" s="9">
-        <v>46233</v>
+        <v>46178</v>
       </c>
       <c r="J170" s="9">
-        <v>46233</v>
+        <v>46182</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C171" s="8" t="s">
-        <v>263</v>
+        <v>585</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>227</v>
+        <v>586</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>129</v>
+        <v>587</v>
       </c>
       <c r="G171" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="I171" s="9">
-        <v>46234</v>
+        <v>46183</v>
       </c>
       <c r="J171" s="9">
-        <v>46234</v>
+        <v>46184</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -8188,122 +8485,1302 @@
         <v>90</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>264</v>
+        <v>588</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>138</v>
+        <v>589</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="G172" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I172" s="9">
-        <v>46237</v>
+        <v>46185</v>
       </c>
       <c r="J172" s="9">
-        <v>46239</v>
+        <v>46186</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="7" t="s">
-        <v>178</v>
+      <c r="B173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>218</v>
+        <v>590</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>265</v>
+        <v>591</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G173" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I173" s="9">
-        <v>46240</v>
+        <v>46187</v>
       </c>
       <c r="J173" s="9">
-        <v>46240</v>
+        <v>46188</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C174" s="8" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>206</v>
+        <v>593</v>
       </c>
       <c r="E174" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G174" s="8">
+        <v>1</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I174" s="9">
+        <v>46189</v>
+      </c>
+      <c r="J174" s="9">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G175" s="8">
+        <v>1</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I175" s="9">
+        <v>46190</v>
+      </c>
+      <c r="J175" s="9">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G176" s="8">
+        <v>1</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I176" s="9">
+        <v>46191</v>
+      </c>
+      <c r="J176" s="9">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G177" s="8">
+        <v>2</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I177" s="9">
+        <v>46192</v>
+      </c>
+      <c r="J177" s="9">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F178" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G178" s="8">
+        <v>3</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I178" s="9">
+        <v>46194</v>
+      </c>
+      <c r="J178" s="9">
+        <v>46198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G179" s="8">
+        <v>2</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I179" s="9">
+        <v>46199</v>
+      </c>
+      <c r="J179" s="9">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G180" s="8">
+        <v>2</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180" s="9">
+        <v>46201</v>
+      </c>
+      <c r="J180" s="9">
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G174" s="8">
-        <v>1</v>
-      </c>
-      <c r="H174" s="8" t="s">
+      <c r="G181" s="8">
+        <v>2</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I181" s="9">
+        <v>46203</v>
+      </c>
+      <c r="J181" s="9">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G182" s="8">
+        <v>1</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I182" s="9">
+        <v>46205</v>
+      </c>
+      <c r="J182" s="9">
+        <v>46205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G183" s="8">
+        <v>1</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="I183" s="9">
+        <v>46206</v>
+      </c>
+      <c r="J183" s="9">
+        <v>46206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G184" s="8">
+        <v>2</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I184" s="9">
+        <v>46207</v>
+      </c>
+      <c r="J184" s="9">
+        <v>46208</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="G185" s="8">
+        <v>2</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I185" s="9">
+        <v>46209</v>
+      </c>
+      <c r="J185" s="9">
+        <v>46210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G186" s="8">
+        <v>2</v>
+      </c>
+      <c r="H186" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I174" s="9">
+      <c r="I186" s="9">
+        <v>46211</v>
+      </c>
+      <c r="J186" s="9">
+        <v>46212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G187" s="8">
+        <v>1</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I187" s="9">
+        <v>46213</v>
+      </c>
+      <c r="J187" s="9">
+        <v>46213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G188" s="8">
+        <v>1</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I188" s="9">
+        <v>46214</v>
+      </c>
+      <c r="J188" s="9">
+        <v>46214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="7"/>
+      <c r="B189" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G189" s="8">
+        <v>1</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I189" s="9">
+        <v>46215</v>
+      </c>
+      <c r="J189" s="9">
+        <v>46215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G190" s="8">
+        <v>1</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I190" s="9">
+        <v>46216</v>
+      </c>
+      <c r="J190" s="9">
+        <v>46216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="G191" s="8">
+        <v>1</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="I191" s="9">
+        <v>46217</v>
+      </c>
+      <c r="J191" s="9">
+        <v>46217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G192" s="8">
+        <v>2</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I192" s="9">
+        <v>46218</v>
+      </c>
+      <c r="J192" s="9">
+        <v>46219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G193" s="8">
+        <v>2</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I193" s="9">
+        <v>46220</v>
+      </c>
+      <c r="J193" s="9">
+        <v>46221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="7"/>
+      <c r="B194" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G194" s="8">
+        <v>3</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I194" s="9">
+        <v>46222</v>
+      </c>
+      <c r="J194" s="9">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="7"/>
+      <c r="B195" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G195" s="8">
+        <v>2</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195" s="9">
+        <v>46227</v>
+      </c>
+      <c r="J195" s="9">
+        <v>46228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="7"/>
+      <c r="B196" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G196" s="8">
+        <v>2</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196" s="9">
+        <v>46229</v>
+      </c>
+      <c r="J196" s="9">
+        <v>46230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G197" s="8">
+        <v>2</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I197" s="9">
+        <v>46231</v>
+      </c>
+      <c r="J197" s="9">
+        <v>46232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G198" s="8">
+        <v>1</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I198" s="9">
+        <v>46233</v>
+      </c>
+      <c r="J198" s="9">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G199" s="8">
+        <v>1</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="I199" s="9">
+        <v>46234</v>
+      </c>
+      <c r="J199" s="9">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="7"/>
+      <c r="B200" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G200" s="8">
+        <v>2</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I200" s="9">
+        <v>46235</v>
+      </c>
+      <c r="J200" s="9">
+        <v>46236</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G201" s="8">
+        <v>3</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I201" s="9">
+        <v>46237</v>
+      </c>
+      <c r="J201" s="9">
         <v>46241</v>
       </c>
-      <c r="J174" s="9">
-        <v>46241</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="7"/>
-      <c r="B175" s="8" t="s">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="7"/>
+      <c r="B202" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G202" s="8">
+        <v>2</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I202" s="9">
+        <v>46242</v>
+      </c>
+      <c r="J202" s="9">
+        <v>46243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="7"/>
+      <c r="B203" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G203" s="8">
+        <v>2</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I203" s="9">
+        <v>46244</v>
+      </c>
+      <c r="J203" s="9">
+        <v>46245</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="7"/>
+      <c r="B204" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" s="8">
+        <v>2</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I204" s="9">
+        <v>46246</v>
+      </c>
+      <c r="J204" s="9">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="7"/>
+      <c r="B205" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E175" s="8" t="s">
+      <c r="C205" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E205" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F205" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G175" s="8">
-        <v>1</v>
-      </c>
-      <c r="H175" s="8" t="s">
+      <c r="G205" s="8">
+        <v>1</v>
+      </c>
+      <c r="H205" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I175" s="9">
-        <v>46244</v>
-      </c>
-      <c r="J175" s="9">
-        <v>46244</v>
+      <c r="I205" s="9">
+        <v>46248</v>
+      </c>
+      <c r="J205" s="9">
+        <v>46248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G206" s="8">
+        <v>1</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I206" s="9">
+        <v>46251</v>
+      </c>
+      <c r="J206" s="9">
+        <v>46251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G207" s="8">
+        <v>1</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I207" s="9">
+        <v>46252</v>
+      </c>
+      <c r="J207" s="9">
+        <v>46252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G208" s="8">
+        <v>3</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I208" s="9">
+        <v>46253</v>
+      </c>
+      <c r="J208" s="9">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G209" s="8">
+        <v>2</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="I209" s="9">
+        <v>46256</v>
+      </c>
+      <c r="J209" s="9">
+        <v>46257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G210" s="8">
+        <v>2</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I210" s="9">
+        <v>46258</v>
+      </c>
+      <c r="J210" s="9">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G211" s="8">
+        <v>2</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I211" s="9">
+        <v>46258</v>
+      </c>
+      <c r="J211" s="9">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G212" s="8">
+        <v>1</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I212" s="9">
+        <v>46260</v>
+      </c>
+      <c r="J212" s="9">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G213" s="8">
+        <v>1</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I213" s="9">
+        <v>46261</v>
+      </c>
+      <c r="J213" s="9">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="7"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="G214" s="8">
+        <v>1</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="I214" s="9">
+        <v>46262</v>
+      </c>
+      <c r="J214" s="9">
+        <v>46262</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="79">
+    <mergeCell ref="A183:A190"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A191:A198"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="A199:A205"/>
+    <mergeCell ref="A206:A214"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B214"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A175:A182"/>
+    <mergeCell ref="B175:B176"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B72:B73"/>
@@ -8312,9 +9789,6 @@
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A167:A175"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B173:B174"/>
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="B159:B160"/>
@@ -8402,13 +9876,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -8434,13 +9908,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -8466,13 +9940,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -8498,13 +9972,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -8530,13 +10004,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -8562,13 +10036,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -8594,13 +10068,13 @@
         <v>145</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -8626,13 +10100,13 @@
         <v>145</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -8658,13 +10132,13 @@
         <v>145</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -8690,13 +10164,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -8722,13 +10196,13 @@
         <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -8754,13 +10228,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -8786,13 +10260,13 @@
         <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -8818,13 +10292,13 @@
         <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -8850,13 +10324,13 @@
         <v>146</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -8882,13 +10356,13 @@
         <v>146</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -8914,13 +10388,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
@@ -8946,13 +10420,13 @@
         <v>147</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E18" t="s">
         <v>55</v>
@@ -8978,13 +10452,13 @@
         <v>147</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -9010,13 +10484,13 @@
         <v>147</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -9042,13 +10516,13 @@
         <v>147</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
@@ -9074,13 +10548,13 @@
         <v>148</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -9106,13 +10580,13 @@
         <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -9138,13 +10612,13 @@
         <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -9170,19 +10644,19 @@
         <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9202,13 +10676,13 @@
         <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -9234,13 +10708,13 @@
         <v>80</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -9266,13 +10740,13 @@
         <v>80</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -9298,13 +10772,13 @@
         <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
@@ -9330,13 +10804,13 @@
         <v>90</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E30" t="s">
         <v>69</v>
@@ -9359,16 +10833,16 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -9378,236 +10852,398 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA14A2B-9539-47AB-AA24-52EEA887F30E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D13"/>
+      <selection activeCell="A2" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>567</v>
+        <v>657</v>
       </c>
       <c r="D2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46234</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>659</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46235</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>662</v>
       </c>
       <c r="C4" t="s">
-        <v>570</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46237</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46242</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="D6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46244</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>576</v>
+        <v>669</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46246</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>656</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>578</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46248</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>580</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46233</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Module_1_API_Connector_Plan_Filled.xlsx
+++ b/Module_1_API_Connector_Plan_Filled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096002E-9BD3-4285-846D-4A7F0DFF65B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C03FEF-49B7-4255-BE73-E90149D03AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Module 1 - API Connector" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="714">
   <si>
     <t>Module</t>
   </si>
@@ -1744,63 +1744,9 @@
     <t>Reporting &amp; audit module approved</t>
   </si>
   <si>
-    <t>Understand execution visibility requirements and KPIs</t>
-  </si>
-  <si>
-    <t>Clear definition of what execution metrics users need to monitor</t>
-  </si>
-  <si>
-    <t>QA + Dev-1 + UI-1</t>
-  </si>
-  <si>
-    <t>Define dashboard layout and data sources</t>
-  </si>
-  <si>
-    <t>Approved dashboard structure and data mapping</t>
-  </si>
-  <si>
-    <t>Requirement Finalized</t>
-  </si>
-  <si>
     <t>Backend APIs</t>
   </si>
   <si>
-    <t>Build APIs to fetch execution status and metrics</t>
-  </si>
-  <si>
-    <t>Backend exposes real-time execution data</t>
-  </si>
-  <si>
-    <t>Execution Engine</t>
-  </si>
-  <si>
-    <t>Build execution dashboard UI</t>
-  </si>
-  <si>
-    <t>Users can visually monitor executions in real time</t>
-  </si>
-  <si>
-    <t>Validate backend APIs and UI integration</t>
-  </si>
-  <si>
-    <t>Dashboard data is accurate and stable</t>
-  </si>
-  <si>
-    <t>UI Complete</t>
-  </si>
-  <si>
-    <t>Execute dashboard validation scenarios</t>
-  </si>
-  <si>
-    <t>Dashboard functionality verified under QA</t>
-  </si>
-  <si>
-    <t>Fix backend and UI issues identified</t>
-  </si>
-  <si>
-    <t>Stable and reliable execution dashboard</t>
-  </si>
-  <si>
     <t>Retest and approve execution dashboard</t>
   </si>
   <si>
@@ -1810,234 +1756,54 @@
     <t>Module 10: Test Coverage Dashboard</t>
   </si>
   <si>
-    <t>Understand test coverage reporting requirements</t>
-  </si>
-  <si>
-    <t>Clear definition of coverage metrics and dimensions</t>
-  </si>
-  <si>
-    <t>Test Case Mgmt Ready</t>
-  </si>
-  <si>
-    <t>Define coverage calculation logic</t>
-  </si>
-  <si>
-    <t>Standardized method to compute coverage</t>
-  </si>
-  <si>
-    <t>Build APIs to calculate and fetch coverage data</t>
-  </si>
-  <si>
-    <t>Backend provides accurate coverage metrics</t>
-  </si>
-  <si>
-    <t>Coverage Logic Defined</t>
-  </si>
-  <si>
-    <t>Build coverage dashboard UI</t>
-  </si>
-  <si>
-    <t>Users can view coverage by environment, status, and tags</t>
-  </si>
-  <si>
-    <t>Validate coverage logic and UI display</t>
-  </si>
-  <si>
-    <t>Coverage metrics verified end-to-end</t>
-  </si>
-  <si>
     <t>Execute coverage validation scenarios</t>
   </si>
   <si>
-    <t>Coverage dashboard validated under QA</t>
-  </si>
-  <si>
-    <t>Fix defects and improve visuals</t>
-  </si>
-  <si>
-    <t>Coverage dashboard stabilized</t>
-  </si>
-  <si>
     <t>Final QA approval</t>
   </si>
   <si>
-    <t>Coverage dashboard approved</t>
-  </si>
-  <si>
     <t>Module 11: Health Check &amp; Monitoring</t>
   </si>
   <si>
-    <t>Define health and monitoring requirements</t>
-  </si>
-  <si>
-    <t>Clear criteria for system health defined</t>
-  </si>
-  <si>
-    <t>Core Modules Ready</t>
-  </si>
-  <si>
-    <t>Dev-1 + DevOps</t>
-  </si>
-  <si>
     <t>Monitoring Backend</t>
   </si>
   <si>
     <t>Implement service health check APIs</t>
   </si>
   <si>
-    <t>System exposes health endpoints</t>
-  </si>
-  <si>
     <t>Implement performance and failure monitoring</t>
   </si>
   <si>
-    <t>Runtime issues can be detected proactively</t>
-  </si>
-  <si>
-    <t>Health APIs</t>
-  </si>
-  <si>
     <t>Monitoring UI</t>
   </si>
   <si>
-    <t>Build UI to visualize system health</t>
-  </si>
-  <si>
-    <t>Users can see real-time system health</t>
-  </si>
-  <si>
-    <t>Validate monitoring flow</t>
-  </si>
-  <si>
-    <t>Monitoring works reliably</t>
-  </si>
-  <si>
-    <t>Execute monitoring scenarios</t>
-  </si>
-  <si>
-    <t>Monitoring validated under QA</t>
-  </si>
-  <si>
-    <t>Fix monitoring defects</t>
-  </si>
-  <si>
-    <t>Monitoring stabilized</t>
-  </si>
-  <si>
-    <t>Monitoring approved</t>
-  </si>
-  <si>
     <t>Module 12: User Management &amp; Security</t>
   </si>
   <si>
-    <t>Understand user roles and access control needs</t>
-  </si>
-  <si>
-    <t>Clear definition of roles and permissions</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Platform Ready</t>
-  </si>
-  <si>
-    <t>Dev-1 + QA</t>
-  </si>
-  <si>
     <t>Backend Security</t>
   </si>
   <si>
-    <t>Implement role-based access control</t>
-  </si>
-  <si>
-    <t>Secure access enforced across platform</t>
-  </si>
-  <si>
-    <t>Implement user authentication &amp; authorization</t>
-  </si>
-  <si>
-    <t>Secure login and session handling</t>
-  </si>
-  <si>
-    <t>RBAC Ready</t>
-  </si>
-  <si>
     <t>User Management UI</t>
   </si>
   <si>
     <t>Build UI for user and role management</t>
   </si>
   <si>
-    <t>Admins can manage users and roles</t>
-  </si>
-  <si>
-    <t>Validate security and access controls</t>
-  </si>
-  <si>
-    <t>Security flows verified</t>
-  </si>
-  <si>
-    <t>Execute security test scenarios</t>
-  </si>
-  <si>
-    <t>Security validated under QA</t>
-  </si>
-  <si>
     <t>Fix security and UI issues</t>
   </si>
   <si>
-    <t>Secure and stable access control</t>
-  </si>
-  <si>
-    <t>Security module approved</t>
-  </si>
-  <si>
     <t>Module 13: Configuration Master Data</t>
   </si>
   <si>
-    <t>Identify master configuration entities</t>
-  </si>
-  <si>
-    <t>Clear list of configurable master data</t>
-  </si>
-  <si>
     <t>Backend Configuration</t>
   </si>
   <si>
-    <t>Implement APIs to manage master data</t>
-  </si>
-  <si>
-    <t>Centralized configuration management</t>
-  </si>
-  <si>
     <t>Configuration UI</t>
   </si>
   <si>
-    <t>Build UI for managing master configurations</t>
-  </si>
-  <si>
-    <t>Users can manage configuration data easily</t>
-  </si>
-  <si>
-    <t>Validate configuration flow</t>
-  </si>
-  <si>
-    <t>Configuration changes applied correctly</t>
-  </si>
-  <si>
-    <t>Execute configuration scenarios</t>
-  </si>
-  <si>
-    <t>Configuration validated under QA</t>
-  </si>
-  <si>
     <t>Fix configuration-related defects</t>
   </si>
   <si>
-    <t>Configuration stabilized</t>
-  </si>
-  <si>
     <t>Final QA sign-off</t>
   </si>
   <si>
@@ -2135,6 +1901,270 @@
   </si>
   <si>
     <t>QA-2 + Stakeholders</t>
+  </si>
+  <si>
+    <t>Understand execution visibility requirements, KPIs, and user expectations</t>
+  </si>
+  <si>
+    <t>Clear understanding of what execution data needs to be shown and monitored</t>
+  </si>
+  <si>
+    <t>Define execution states (queued, running, success, failed)</t>
+  </si>
+  <si>
+    <t>Execution lifecycle standardized for dashboard display</t>
+  </si>
+  <si>
+    <t>Requirements Understood</t>
+  </si>
+  <si>
+    <t>Define dashboard layout, widgets, and drill-down views</t>
+  </si>
+  <si>
+    <t>Dashboard structure finalized for usability</t>
+  </si>
+  <si>
+    <t>Design execution summary &amp; detail API contracts</t>
+  </si>
+  <si>
+    <t>APIs clearly defined for dashboard consumption</t>
+  </si>
+  <si>
+    <t>Implement APIs to fetch execution status &amp; metrics</t>
+  </si>
+  <si>
+    <t>Execution data available for real-time and historical views</t>
+  </si>
+  <si>
+    <t>API Design</t>
+  </si>
+  <si>
+    <t>Build execution dashboard overview screen</t>
+  </si>
+  <si>
+    <t>Users can view execution health at a glance</t>
+  </si>
+  <si>
+    <t>APIs Ready</t>
+  </si>
+  <si>
+    <t>Build execution detail &amp; log view</t>
+  </si>
+  <si>
+    <t>Users can drill down into execution details</t>
+  </si>
+  <si>
+    <t>Backend unit testing of execution APIs</t>
+  </si>
+  <si>
+    <t>Execution APIs validated and stable</t>
+  </si>
+  <si>
+    <t>UI integration testing with backend APIs</t>
+  </si>
+  <si>
+    <t>Dashboard UI reflects accurate execution data</t>
+  </si>
+  <si>
+    <t>Execute execution dashboard test scenarios</t>
+  </si>
+  <si>
+    <t>Dashboard functionality validated end-to-end</t>
+  </si>
+  <si>
+    <t>Fix backend execution data issues</t>
+  </si>
+  <si>
+    <t>Accurate and reliable execution data</t>
+  </si>
+  <si>
+    <t>Fix UI rendering and usability issues</t>
+  </si>
+  <si>
+    <t>Improved dashboard usability</t>
+  </si>
+  <si>
+    <t>Understand test coverage reporting requirements across modules</t>
+  </si>
+  <si>
+    <t>Clear understanding of how coverage should be measured and presented</t>
+  </si>
+  <si>
+    <t>Module 9 Complete</t>
+  </si>
+  <si>
+    <t>Define coverage calculation logic (API, DB, UI, scenarios)</t>
+  </si>
+  <si>
+    <t>Standardized logic for accurate coverage computation</t>
+  </si>
+  <si>
+    <t>Implement APIs to calculate and fetch coverage data</t>
+  </si>
+  <si>
+    <t>Coverage data available for dashboards</t>
+  </si>
+  <si>
+    <t>Build coverage dashboard with charts and summaries</t>
+  </si>
+  <si>
+    <t>Users can visually track overall and module-wise coverage</t>
+  </si>
+  <si>
+    <t>Highlight coverage gaps and risk areas</t>
+  </si>
+  <si>
+    <t>Missing test coverage clearly identified</t>
+  </si>
+  <si>
+    <t>Validate coverage calculation logic</t>
+  </si>
+  <si>
+    <t>Coverage numbers verified as accurate</t>
+  </si>
+  <si>
+    <t>Validate UI charts and data rendering</t>
+  </si>
+  <si>
+    <t>Coverage displayed correctly in UI</t>
+  </si>
+  <si>
+    <t>Coverage dashboard functionally validated</t>
+  </si>
+  <si>
+    <t>Fix calculation or visualization issues</t>
+  </si>
+  <si>
+    <t>Accurate and readable coverage dashboard</t>
+  </si>
+  <si>
+    <t>Coverage dashboard approved for release</t>
+  </si>
+  <si>
+    <t>Define system health, availability, and monitoring requirements</t>
+  </si>
+  <si>
+    <t>Monitoring scope and expectations clearly defined</t>
+  </si>
+  <si>
+    <t>Module 10 Complete</t>
+  </si>
+  <si>
+    <t>Services expose real-time health status</t>
+  </si>
+  <si>
+    <t>Early detection of performance or failure issues</t>
+  </si>
+  <si>
+    <t>Health APIs Ready</t>
+  </si>
+  <si>
+    <t>Build system health visualization dashboard</t>
+  </si>
+  <si>
+    <t>Users can monitor system health at a glance</t>
+  </si>
+  <si>
+    <t>Validate monitoring APIs and UI integration</t>
+  </si>
+  <si>
+    <t>Monitoring flow works end-to-end</t>
+  </si>
+  <si>
+    <t>Execute monitoring and failure scenarios</t>
+  </si>
+  <si>
+    <t>Monitoring reliability validated</t>
+  </si>
+  <si>
+    <t>Fix monitoring defects and UI issues</t>
+  </si>
+  <si>
+    <t>Stable and accurate monitoring solution</t>
+  </si>
+  <si>
+    <t>Health monitoring approved</t>
+  </si>
+  <si>
+    <t>Understand user roles, permissions, and access control needs</t>
+  </si>
+  <si>
+    <t>Security and access model clearly defined</t>
+  </si>
+  <si>
+    <t>Module 11 Complete</t>
+  </si>
+  <si>
+    <t>Implement authentication mechanisms</t>
+  </si>
+  <si>
+    <t>Secure user authentication enforced</t>
+  </si>
+  <si>
+    <t>Implement role-based access control (RBAC)</t>
+  </si>
+  <si>
+    <t>Users have controlled access based on roles</t>
+  </si>
+  <si>
+    <t>Auth Ready</t>
+  </si>
+  <si>
+    <t>Admins can manage users and permissions</t>
+  </si>
+  <si>
+    <t>Validate authentication and authorization flows</t>
+  </si>
+  <si>
+    <t>Security rules verified end-to-end</t>
+  </si>
+  <si>
+    <t>Execute security and access test scenarios</t>
+  </si>
+  <si>
+    <t>Security behavior validated</t>
+  </si>
+  <si>
+    <t>Secure and compliant user management</t>
+  </si>
+  <si>
+    <t>User management module approved</t>
+  </si>
+  <si>
+    <t>Identify master configuration entities and relationships</t>
+  </si>
+  <si>
+    <t>Configuration entities clearly defined</t>
+  </si>
+  <si>
+    <t>Module 12 Complete</t>
+  </si>
+  <si>
+    <t>Implement CRUD APIs for master data</t>
+  </si>
+  <si>
+    <t>Master configuration manageable via APIs</t>
+  </si>
+  <si>
+    <t>Build UI for managing configuration master data</t>
+  </si>
+  <si>
+    <t>Users can add, update, and manage configurations</t>
+  </si>
+  <si>
+    <t>Validate configuration flows and persistence</t>
+  </si>
+  <si>
+    <t>Configuration changes verified</t>
+  </si>
+  <si>
+    <t>Execute configuration test scenarios</t>
+  </si>
+  <si>
+    <t>Configuration behavior validated</t>
+  </si>
+  <si>
+    <t>Stable configuration management</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2202,6 +2232,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2218,11 +2285,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2241,7 +2308,27 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2546,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB212B-7EE5-4CCE-A35A-15599CD10061}">
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8330,29 +8417,29 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>573</v>
+        <v>626</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>574</v>
+        <v>627</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G167" s="8">
         <v>1</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>575</v>
+        <v>115</v>
       </c>
       <c r="I167" s="9">
         <v>46174</v>
@@ -8362,25 +8449,25 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="8" t="s">
-        <v>576</v>
+        <v>628</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="G168" s="8">
         <v>1</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I168" s="9">
         <v>46175</v>
@@ -8389,28 +8476,26 @@
         <v>46175</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="7"/>
-      <c r="B169" s="8" t="s">
-        <v>579</v>
-      </c>
+    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="12"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="8" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="G169" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I169" s="9">
         <v>46176</v>
@@ -8420,27 +8505,27 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="7"/>
-      <c r="B170" s="8" t="s">
-        <v>248</v>
+      <c r="A170" s="12"/>
+      <c r="B170" s="14" t="s">
+        <v>573</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G170" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I170" s="9">
         <v>46178</v>
@@ -8449,28 +8534,26 @@
         <v>46182</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
-      <c r="B171" s="8" t="s">
-        <v>80</v>
-      </c>
+    <row r="171" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="12"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="8" t="s">
-        <v>585</v>
+        <v>635</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>586</v>
+        <v>636</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
       <c r="G171" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="I171" s="9">
         <v>46183</v>
@@ -8480,171 +8563,155 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="7"/>
-      <c r="B172" s="8" t="s">
-        <v>90</v>
+      <c r="A172" s="12"/>
+      <c r="B172" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>589</v>
+        <v>639</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>93</v>
+        <v>640</v>
       </c>
       <c r="G172" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I172" s="9">
-        <v>46185</v>
-      </c>
-      <c r="J172" s="9">
-        <v>46186</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="7"/>
-      <c r="B173" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="A173" s="12"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="8" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>98</v>
+        <v>640</v>
       </c>
       <c r="G173" s="8">
         <v>2</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I173" s="9">
+        <v>46185</v>
+      </c>
+      <c r="J173" s="9">
+        <v>46186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="12"/>
+      <c r="B174" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G174" s="8">
+        <v>2</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I174" s="9">
         <v>46187</v>
       </c>
-      <c r="J173" s="9">
+      <c r="J174" s="9">
         <v>46188</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="E174" s="8" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="12"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G175" s="8">
+        <v>2</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="12"/>
+      <c r="B176" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E176" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F174" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G174" s="8">
-        <v>1</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I174" s="9">
-        <v>46189</v>
-      </c>
-      <c r="J174" s="9">
-        <v>46189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="G175" s="8">
-        <v>1</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="I175" s="9">
-        <v>46190</v>
-      </c>
-      <c r="J175" s="9">
-        <v>46190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="F176" s="8" t="s">
-        <v>578</v>
+        <v>93</v>
       </c>
       <c r="G176" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I176" s="9">
-        <v>46191</v>
-      </c>
-      <c r="J176" s="9">
-        <v>46191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="7"/>
-      <c r="B177" s="8" t="s">
-        <v>579</v>
+        <v>71</v>
+      </c>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="12"/>
+      <c r="B177" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>602</v>
+        <v>98</v>
       </c>
       <c r="G177" s="8">
         <v>2</v>
@@ -8652,239 +8719,219 @@
       <c r="H177" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I177" s="9">
-        <v>46192</v>
-      </c>
-      <c r="J177" s="9">
-        <v>46193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="7"/>
-      <c r="B178" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="12"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="8" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G178" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I178" s="9">
-        <v>46194</v>
-      </c>
-      <c r="J178" s="9">
-        <v>46198</v>
-      </c>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="7"/>
-      <c r="B179" s="8" t="s">
-        <v>80</v>
+      <c r="A179" s="13"/>
+      <c r="B179" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>587</v>
+        <v>104</v>
       </c>
       <c r="G179" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I179" s="9">
-        <v>46199</v>
+        <v>46189</v>
       </c>
       <c r="J179" s="9">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="7"/>
-      <c r="B180" s="8" t="s">
-        <v>90</v>
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>93</v>
+        <v>655</v>
       </c>
       <c r="G180" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="I180" s="9">
-        <v>46201</v>
+        <v>46190</v>
       </c>
       <c r="J180" s="9">
-        <v>46202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="B181" s="13"/>
       <c r="C181" s="8" t="s">
-        <v>609</v>
+        <v>656</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>610</v>
+        <v>657</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>98</v>
+        <v>630</v>
       </c>
       <c r="G181" s="8">
         <v>2</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="I181" s="9">
-        <v>46203</v>
+        <v>46191</v>
       </c>
       <c r="J181" s="9">
-        <v>46204</v>
+        <v>46191</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="8" t="s">
-        <v>101</v>
+        <v>573</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G182" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I182" s="9">
-        <v>46205</v>
-      </c>
-      <c r="J182" s="9">
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>192</v>
+        <v>115</v>
+      </c>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+    </row>
+    <row r="183" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="7"/>
+      <c r="B183" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="G183" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>617</v>
+        <v>57</v>
       </c>
       <c r="I183" s="9">
-        <v>46206</v>
+        <v>46192</v>
       </c>
       <c r="J183" s="9">
-        <v>46206</v>
+        <v>46193</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="7" t="s">
-        <v>618</v>
-      </c>
+      <c r="B184" s="13"/>
       <c r="C184" s="8" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>117</v>
+        <v>640</v>
       </c>
       <c r="G184" s="8">
         <v>2</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I184" s="9">
-        <v>46207</v>
-      </c>
-      <c r="J184" s="9">
-        <v>46208</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="C185" s="8" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>623</v>
+        <v>135</v>
       </c>
       <c r="G185" s="8">
         <v>2</v>
@@ -8892,29 +8939,23 @@
       <c r="H185" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I185" s="9">
-        <v>46209</v>
-      </c>
-      <c r="J185" s="9">
-        <v>46210</v>
-      </c>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="8" t="s">
-        <v>624</v>
-      </c>
+      <c r="B186" s="13"/>
       <c r="C186" s="8" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G186" s="8">
         <v>2</v>
@@ -8923,180 +8964,174 @@
         <v>57</v>
       </c>
       <c r="I186" s="9">
-        <v>46211</v>
+        <v>46194</v>
       </c>
       <c r="J186" s="9">
-        <v>46212</v>
+        <v>46198</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="G187" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I187" s="9">
-        <v>46213</v>
+        <v>46199</v>
       </c>
       <c r="J187" s="9">
-        <v>46213</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G188" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I188" s="9">
-        <v>46214</v>
-      </c>
-      <c r="J188" s="9">
-        <v>46214</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="8" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>631</v>
+        <v>578</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G189" s="8">
         <v>1</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I189" s="9">
-        <v>46215</v>
+        <v>46201</v>
       </c>
       <c r="J189" s="9">
-        <v>46215</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="7"/>
+        <v>46202</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>579</v>
+      </c>
       <c r="B190" s="8" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>216</v>
+        <v>672</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>104</v>
+        <v>674</v>
       </c>
       <c r="G190" s="8">
         <v>1</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I190" s="9">
-        <v>46216</v>
+        <v>46206</v>
       </c>
       <c r="J190" s="9">
-        <v>46216</v>
+        <v>46206</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>192</v>
+      <c r="A191" s="7"/>
+      <c r="B191" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>637</v>
+        <v>13</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>638</v>
+        <v>117</v>
       </c>
       <c r="G191" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>639</v>
+        <v>115</v>
       </c>
       <c r="I191" s="9">
-        <v>46217</v>
+        <v>46207</v>
       </c>
       <c r="J191" s="9">
-        <v>46217</v>
+        <v>46208</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="7" t="s">
-        <v>640</v>
-      </c>
+      <c r="B192" s="13"/>
       <c r="C192" s="8" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>117</v>
+        <v>677</v>
       </c>
       <c r="G192" s="8">
         <v>2</v>
@@ -9105,238 +9140,238 @@
         <v>115</v>
       </c>
       <c r="I192" s="9">
-        <v>46218</v>
+        <v>46209</v>
       </c>
       <c r="J192" s="9">
-        <v>46219</v>
+        <v>46210</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+      <c r="B193" s="8" t="s">
+        <v>583</v>
+      </c>
       <c r="C193" s="8" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G193" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="I193" s="9">
-        <v>46220</v>
+        <v>46211</v>
       </c>
       <c r="J193" s="9">
-        <v>46221</v>
+        <v>46212</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="8" t="s">
-        <v>646</v>
+        <v>80</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G194" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="I194" s="9">
-        <v>46222</v>
+        <v>46213</v>
       </c>
       <c r="J194" s="9">
-        <v>46226</v>
+        <v>46213</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="G195" s="8">
         <v>2</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I195" s="9">
-        <v>46227</v>
+        <v>46214</v>
       </c>
       <c r="J195" s="9">
-        <v>46228</v>
+        <v>46214</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G196" s="8">
         <v>2</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I196" s="9">
-        <v>46229</v>
+        <v>46215</v>
       </c>
       <c r="J196" s="9">
-        <v>46230</v>
+        <v>46215</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="8" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>653</v>
+        <v>216</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G197" s="8">
+        <v>1</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197" s="9">
+        <v>46216</v>
+      </c>
+      <c r="J197" s="9">
+        <v>46216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="G198" s="8">
+        <v>1</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I198" s="9">
+        <v>46217</v>
+      </c>
+      <c r="J198" s="9">
+        <v>46217</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="7"/>
+      <c r="B199" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G199" s="8">
         <v>2</v>
       </c>
-      <c r="H197" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I197" s="9">
-        <v>46231</v>
-      </c>
-      <c r="J197" s="9">
-        <v>46232</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="7"/>
-      <c r="B198" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G198" s="8">
-        <v>1</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I198" s="9">
-        <v>46233</v>
-      </c>
-      <c r="J198" s="9">
-        <v>46233</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="G199" s="8">
-        <v>1</v>
-      </c>
       <c r="H199" s="8" t="s">
-        <v>639</v>
+        <v>115</v>
       </c>
       <c r="I199" s="9">
-        <v>46234</v>
+        <v>46218</v>
       </c>
       <c r="J199" s="9">
-        <v>46234</v>
+        <v>46219</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="8" t="s">
-        <v>659</v>
-      </c>
+      <c r="B200" s="13"/>
       <c r="C200" s="8" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>117</v>
+        <v>694</v>
       </c>
       <c r="G200" s="8">
         <v>2</v>
@@ -9345,28 +9380,28 @@
         <v>115</v>
       </c>
       <c r="I200" s="9">
-        <v>46235</v>
+        <v>46220</v>
       </c>
       <c r="J200" s="9">
-        <v>46236</v>
+        <v>46221</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="8" t="s">
-        <v>662</v>
+        <v>586</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>663</v>
+        <v>587</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G201" s="8">
         <v>3</v>
@@ -9375,10 +9410,10 @@
         <v>57</v>
       </c>
       <c r="I201" s="9">
-        <v>46237</v>
+        <v>46222</v>
       </c>
       <c r="J201" s="9">
-        <v>46241</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9387,16 +9422,16 @@
         <v>80</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>587</v>
+        <v>135</v>
       </c>
       <c r="G202" s="8">
         <v>2</v>
@@ -9405,10 +9440,10 @@
         <v>85</v>
       </c>
       <c r="I202" s="9">
-        <v>46242</v>
+        <v>46227</v>
       </c>
       <c r="J202" s="9">
-        <v>46243</v>
+        <v>46228</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9417,10 +9452,10 @@
         <v>90</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>69</v>
@@ -9435,10 +9470,10 @@
         <v>71</v>
       </c>
       <c r="I203" s="9">
-        <v>46244</v>
+        <v>46229</v>
       </c>
       <c r="J203" s="9">
-        <v>46245</v>
+        <v>46230</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9447,10 +9482,10 @@
         <v>177</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>83</v>
@@ -9465,10 +9500,10 @@
         <v>85</v>
       </c>
       <c r="I204" s="9">
-        <v>46246</v>
+        <v>46231</v>
       </c>
       <c r="J204" s="9">
-        <v>46247</v>
+        <v>46232</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9477,10 +9512,10 @@
         <v>101</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>671</v>
+        <v>107</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>69</v>
@@ -9492,295 +9527,512 @@
         <v>1</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I205" s="9">
-        <v>46248</v>
+        <v>46233</v>
       </c>
       <c r="J205" s="9">
-        <v>46248</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>673</v>
+        <v>589</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="G206" s="8">
         <v>1</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>677</v>
+        <v>115</v>
       </c>
       <c r="I206" s="9">
-        <v>46251</v>
+        <v>46234</v>
       </c>
       <c r="J206" s="9">
-        <v>46251</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
+      <c r="B207" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="C207" s="8" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>680</v>
+        <v>117</v>
       </c>
       <c r="G207" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>677</v>
+        <v>115</v>
       </c>
       <c r="I207" s="9">
-        <v>46252</v>
+        <v>46235</v>
       </c>
       <c r="J207" s="9">
-        <v>46252</v>
+        <v>46236</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="7" t="s">
-        <v>681</v>
+      <c r="B208" s="8" t="s">
+        <v>591</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>684</v>
+        <v>149</v>
       </c>
       <c r="G208" s="8">
         <v>3</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>677</v>
+        <v>57</v>
       </c>
       <c r="I208" s="9">
-        <v>46253</v>
+        <v>46237</v>
       </c>
       <c r="J208" s="9">
-        <v>46255</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
+      <c r="B209" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C209" s="8" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>687</v>
+        <v>135</v>
       </c>
       <c r="G209" s="8">
         <v>2</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>677</v>
+        <v>85</v>
       </c>
       <c r="I209" s="9">
-        <v>46256</v>
+        <v>46242</v>
       </c>
       <c r="J209" s="9">
-        <v>46257</v>
+        <v>46243</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="7" t="s">
-        <v>688</v>
+      <c r="B210" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>691</v>
+        <v>93</v>
       </c>
       <c r="G210" s="8">
         <v>2</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="I210" s="9">
-        <v>46258</v>
+        <v>46244</v>
       </c>
       <c r="J210" s="9">
-        <v>46259</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
+      <c r="B211" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="C211" s="8" t="s">
-        <v>692</v>
+        <v>592</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>691</v>
+        <v>98</v>
       </c>
       <c r="G211" s="8">
         <v>2</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="I211" s="9">
-        <v>46258</v>
+        <v>46246</v>
       </c>
       <c r="J211" s="9">
-        <v>46259</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46247</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C212" s="8" t="s">
-        <v>694</v>
+        <v>593</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>695</v>
+        <v>594</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>696</v>
+        <v>104</v>
       </c>
       <c r="G212" s="8">
         <v>1</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I212" s="9">
-        <v>46260</v>
+        <v>46248</v>
       </c>
       <c r="J212" s="9">
-        <v>46260</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A213" s="7"/>
+        <v>46248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="B213" s="7" t="s">
-        <v>697</v>
+        <v>595</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>698</v>
+        <v>596</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>699</v>
+        <v>597</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>104</v>
+        <v>598</v>
       </c>
       <c r="G213" s="8">
         <v>1</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>105</v>
+        <v>599</v>
       </c>
       <c r="I213" s="9">
-        <v>46261</v>
+        <v>46251</v>
       </c>
       <c r="J213" s="9">
-        <v>46261</v>
+        <v>46251</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="8" t="s">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>701</v>
+        <v>601</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>702</v>
+        <v>602</v>
       </c>
       <c r="G214" s="8">
         <v>1</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>703</v>
+        <v>599</v>
       </c>
       <c r="I214" s="9">
+        <v>46252</v>
+      </c>
+      <c r="J214" s="9">
+        <v>46252</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G215" s="8">
+        <v>3</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="I215" s="9">
+        <v>46253</v>
+      </c>
+      <c r="J215" s="9">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G216" s="8">
+        <v>2</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="I216" s="9">
+        <v>46256</v>
+      </c>
+      <c r="J216" s="9">
+        <v>46257</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G217" s="8">
+        <v>2</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I217" s="9">
+        <v>46258</v>
+      </c>
+      <c r="J217" s="9">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G218" s="8">
+        <v>2</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I218" s="9">
+        <v>46258</v>
+      </c>
+      <c r="J218" s="9">
+        <v>46259</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="7"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G219" s="8">
+        <v>1</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I219" s="9">
+        <v>46260</v>
+      </c>
+      <c r="J219" s="9">
+        <v>46260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="7"/>
+      <c r="B220" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G220" s="8">
+        <v>1</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I220" s="9">
+        <v>46261</v>
+      </c>
+      <c r="J220" s="9">
+        <v>46261</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="G221" s="8">
+        <v>1</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="I221" s="9">
         <v>46262</v>
       </c>
-      <c r="J214" s="9">
+      <c r="J221" s="9">
         <v>46262</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A183:A190"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A191:A198"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="A199:A205"/>
-    <mergeCell ref="A206:A214"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B212"/>
+  <mergeCells count="85">
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A206:A212"/>
+    <mergeCell ref="A213:A221"/>
     <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B220:B221"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A167:A174"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A175:A182"/>
-    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="A167:A179"/>
+    <mergeCell ref="A180:A189"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="B174:B175"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B72:B73"/>
@@ -9789,6 +10041,7 @@
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B170:B171"/>
     <mergeCell ref="B164:B165"/>
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="B159:B160"/>
@@ -9854,9 +10107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5168F43-F20A-49DA-A21B-74D7384E1077}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10851,17 +11102,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA14A2B-9539-47AB-AA24-52EEA887F30E}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F590FF-B7FD-4716-9AF5-8891E28A3621}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J8"/>
+      <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -10894,48 +11145,39 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2" s="1">
-        <v>46234</v>
-      </c>
-      <c r="J2" s="1">
-        <v>46234</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>656</v>
-      </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>590</v>
       </c>
       <c r="C3" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -10944,36 +11186,27 @@
         <v>117</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="1">
-        <v>46235</v>
-      </c>
-      <c r="J3" s="1">
-        <v>46236</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>656</v>
-      </c>
       <c r="B4" t="s">
-        <v>662</v>
+        <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -10981,31 +11214,22 @@
       <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="1">
-        <v>46237</v>
-      </c>
-      <c r="J4" s="1">
-        <v>46241</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>656</v>
-      </c>
       <c r="B5" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>587</v>
+        <v>135</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -11013,25 +11237,16 @@
       <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="1">
-        <v>46242</v>
-      </c>
-      <c r="J5" s="1">
-        <v>46243</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>656</v>
-      </c>
       <c r="B6" t="s">
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -11045,25 +11260,16 @@
       <c r="H6" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="1">
-        <v>46244</v>
-      </c>
-      <c r="J6" s="1">
-        <v>46245</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>656</v>
-      </c>
       <c r="B7" t="s">
         <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>669</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="E7" t="s">
         <v>83</v>
@@ -11077,25 +11283,16 @@
       <c r="H7" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="1">
-        <v>46246</v>
-      </c>
-      <c r="J7" s="1">
-        <v>46247</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>656</v>
-      </c>
       <c r="B8" t="s">
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="D8" t="s">
-        <v>672</v>
+        <v>594</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
@@ -11107,19 +11304,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="1">
-        <v>46248</v>
-      </c>
-      <c r="J8" s="1">
-        <v>46248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>634</v>
-      </c>
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -11127,7 +11315,7 @@
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -11139,111 +11327,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="1">
-        <v>46233</v>
-      </c>
-      <c r="J9" s="1">
-        <v>46233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>565</v>
-      </c>
-      <c r="D10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" t="s">
-        <v>567</v>
-      </c>
-      <c r="D11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>571</v>
-      </c>
-      <c r="D13" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D16" t="s">
-        <v>479</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Module_1_API_Connector_Plan_Filled.xlsx
+++ b/Module_1_API_Connector_Plan_Filled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10AE0BA-3F30-4FFD-8332-2E3BDD3A97F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDA6F80-C770-413D-AE0B-B420C3574968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module 1 - API Connector" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,11 @@
     <sheet name="Module6" sheetId="10" r:id="rId6"/>
     <sheet name="m7" sheetId="11" r:id="rId7"/>
     <sheet name="m8" sheetId="12" r:id="rId8"/>
+    <sheet name="9" sheetId="13" r:id="rId9"/>
+    <sheet name="10" sheetId="14" r:id="rId10"/>
+    <sheet name="11" sheetId="15" r:id="rId11"/>
+    <sheet name="12" sheetId="16" r:id="rId12"/>
+    <sheet name="13" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$228</definedName>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="988">
   <si>
     <t>Module</t>
   </si>
@@ -785,6 +790,9 @@
     <t>Module 9: Execution Dashboard</t>
   </si>
   <si>
+    <t>Module 8 Complete</t>
+  </si>
+  <si>
     <t>Dashboard UI</t>
   </si>
   <si>
@@ -2712,6 +2720,285 @@
   </si>
   <si>
     <t>Module 8 approved</t>
+  </si>
+  <si>
+    <t>Planned Start</t>
+  </si>
+  <si>
+    <t>Planned End</t>
+  </si>
+  <si>
+    <t>Clear understanding of execution data, KPIs, drill-downs, and filters</t>
+  </si>
+  <si>
+    <t>Execution lifecycle standardized for dashboard</t>
+  </si>
+  <si>
+    <t>Usable dashboard structure finalized</t>
+  </si>
+  <si>
+    <t>API contracts finalized for dashboard</t>
+  </si>
+  <si>
+    <t>Execution data available for real-time &amp; historical views</t>
+  </si>
+  <si>
+    <t>API Design Approved</t>
+  </si>
+  <si>
+    <t>Drill-down into execution logs &amp; steps enabled</t>
+  </si>
+  <si>
+    <t>Execution APIs validated for correctness &amp; stability</t>
+  </si>
+  <si>
+    <t>Backend Implementation Complete</t>
+  </si>
+  <si>
+    <t>Design functional, negative, and edge scenarios for dashboard</t>
+  </si>
+  <si>
+    <t>Complete QA coverage for views, KPIs, and drill-downs</t>
+  </si>
+  <si>
+    <t>Prepare executable test cases for dashboard validations</t>
+  </si>
+  <si>
+    <t>QA test suite ready for execution</t>
+  </si>
+  <si>
+    <t>QA Scenarios Defined</t>
+  </si>
+  <si>
+    <t>Execute execution dashboard test cases</t>
+  </si>
+  <si>
+    <t>Dashboard behaviour validated end-to-end</t>
+  </si>
+  <si>
+    <t>Integrated Build Available</t>
+  </si>
+  <si>
+    <t>Fix backend execution data issues identified by QA</t>
+  </si>
+  <si>
+    <t>QA Defects Reported</t>
+  </si>
+  <si>
+    <t>Dashboard UI stabilized</t>
+  </si>
+  <si>
+    <t>Retest fixes and validate dashboard stability</t>
+  </si>
+  <si>
+    <t>Stable dashboard verified</t>
+  </si>
+  <si>
+    <t>Confirm module readiness for release</t>
+  </si>
+  <si>
+    <t>Module 9 Approved</t>
+  </si>
+  <si>
+    <t>Module 10</t>
+  </si>
+  <si>
+    <t>Coverage requirements clearly understood</t>
+  </si>
+  <si>
+    <t>Standardized coverage logic finalized</t>
+  </si>
+  <si>
+    <t>Backend unit testing of coverage calculation logic</t>
+  </si>
+  <si>
+    <t>Users can visually track coverage</t>
+  </si>
+  <si>
+    <t>Missing coverage clearly identified</t>
+  </si>
+  <si>
+    <t>UI integration testing with backend APIs (charts &amp; data rendering)</t>
+  </si>
+  <si>
+    <t>Design coverage validation scenarios</t>
+  </si>
+  <si>
+    <t>Prepare executable QA test cases</t>
+  </si>
+  <si>
+    <t>QA test suite ready</t>
+  </si>
+  <si>
+    <t>Integrated Build</t>
+  </si>
+  <si>
+    <t>Fix backend calculation issues identified by QA</t>
+  </si>
+  <si>
+    <t>Accurate coverage computation</t>
+  </si>
+  <si>
+    <t>Fix UI visualization issues identified by QA</t>
+  </si>
+  <si>
+    <t>Clean and readable dashboard</t>
+  </si>
+  <si>
+    <t>QA Retest &amp; Sign-off</t>
+  </si>
+  <si>
+    <t>Final QA validation and approval</t>
+  </si>
+  <si>
+    <t>Module 10 Approved</t>
+  </si>
+  <si>
+    <t>Module 11</t>
+  </si>
+  <si>
+    <t>Monitoring scope defined</t>
+  </si>
+  <si>
+    <t>Real-time health status available</t>
+  </si>
+  <si>
+    <t>Early issue detection enabled</t>
+  </si>
+  <si>
+    <t>Health dashboard available</t>
+  </si>
+  <si>
+    <t>Backend unit testing of monitoring APIs</t>
+  </si>
+  <si>
+    <t>Monitoring backend verified</t>
+  </si>
+  <si>
+    <t>Monitoring UI verified</t>
+  </si>
+  <si>
+    <t>Design monitoring and failure scenarios</t>
+  </si>
+  <si>
+    <t>Prepare executable QA test cases for monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring validated</t>
+  </si>
+  <si>
+    <t>Test Cases Ready</t>
+  </si>
+  <si>
+    <t>Fix backend monitoring defects</t>
+  </si>
+  <si>
+    <t>Stable monitoring backend</t>
+  </si>
+  <si>
+    <t>Fix UI monitoring defects</t>
+  </si>
+  <si>
+    <t>Stable monitoring UI</t>
+  </si>
+  <si>
+    <t>Module 11 Approved</t>
+  </si>
+  <si>
+    <t>Module 12</t>
+  </si>
+  <si>
+    <t>Security model defined</t>
+  </si>
+  <si>
+    <t>Secure login enforced</t>
+  </si>
+  <si>
+    <t>Controlled access enabled</t>
+  </si>
+  <si>
+    <t>User &amp; role admin available</t>
+  </si>
+  <si>
+    <t>Backend unit testing for security flows</t>
+  </si>
+  <si>
+    <t>Security backend verified</t>
+  </si>
+  <si>
+    <t>UI integration testing for security flows</t>
+  </si>
+  <si>
+    <t>Security UI verified</t>
+  </si>
+  <si>
+    <t>Design security and access scenarios</t>
+  </si>
+  <si>
+    <t>Execute security and access scenarios</t>
+  </si>
+  <si>
+    <t>Security validated</t>
+  </si>
+  <si>
+    <t>Fix backend security defects</t>
+  </si>
+  <si>
+    <t>Secure backend stabilized</t>
+  </si>
+  <si>
+    <t>Fix UI security defects</t>
+  </si>
+  <si>
+    <t>Secure UI stabilized</t>
+  </si>
+  <si>
+    <t>Module 12 Approved</t>
+  </si>
+  <si>
+    <t>Module 13</t>
+  </si>
+  <si>
+    <t>Configuration entities defined</t>
+  </si>
+  <si>
+    <t>Configuration APIs ready</t>
+  </si>
+  <si>
+    <t>Configuration UI available</t>
+  </si>
+  <si>
+    <t>Backend unit testing for configuration flows</t>
+  </si>
+  <si>
+    <t>Configuration backend verified</t>
+  </si>
+  <si>
+    <t>UI integration testing for configuration flows</t>
+  </si>
+  <si>
+    <t>Configuration UI verified</t>
+  </si>
+  <si>
+    <t>Design configuration test scenarios</t>
+  </si>
+  <si>
+    <t>Configuration validated</t>
+  </si>
+  <si>
+    <t>Fix backend configuration defects</t>
+  </si>
+  <si>
+    <t>Stable configuration backend</t>
+  </si>
+  <si>
+    <t>Fix UI configuration defects</t>
+  </si>
+  <si>
+    <t>Stable configuration UI</t>
+  </si>
+  <si>
+    <t>Module 13 Approved</t>
   </si>
 </sst>
 </file>
@@ -4287,6 +4574,1730 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52596D81-5906-4BD8-8E41-7BA003E1CFC3}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46162</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46163</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46167</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46170</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>921</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D6" t="s">
+        <v>925</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46175</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D7" t="s">
+        <v>926</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46178</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>921</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46182</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C9" t="s">
+        <v>928</v>
+      </c>
+      <c r="D9" t="s">
+        <v>870</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>763</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46182</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>921</v>
+      </c>
+      <c r="B10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" t="s">
+        <v>929</v>
+      </c>
+      <c r="D10" t="s">
+        <v>930</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>745</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46184</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>921</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D11" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>931</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46185</v>
+      </c>
+      <c r="J11" s="1">
+        <v>46186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>921</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D12" t="s">
+        <v>933</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46186</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>934</v>
+      </c>
+      <c r="D13" t="s">
+        <v>935</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46187</v>
+      </c>
+      <c r="J13" s="1">
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>921</v>
+      </c>
+      <c r="B14" t="s">
+        <v>936</v>
+      </c>
+      <c r="C14" t="s">
+        <v>937</v>
+      </c>
+      <c r="D14" t="s">
+        <v>938</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1">
+        <v>46188</v>
+      </c>
+      <c r="J14" s="1">
+        <v>46188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B01684A-5D7B-444C-97AE-D45DD1160392}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46184</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" t="s">
+        <v>941</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46185</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46190</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46184</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>944</v>
+      </c>
+      <c r="D6" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46191</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46191</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>939</v>
+      </c>
+      <c r="B8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" t="s">
+        <v>947</v>
+      </c>
+      <c r="D8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46192</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" t="s">
+        <v>948</v>
+      </c>
+      <c r="D9" t="s">
+        <v>930</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>745</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>939</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D10" t="s">
+        <v>949</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>950</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>951</v>
+      </c>
+      <c r="D11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J11" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>939</v>
+      </c>
+      <c r="B12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>953</v>
+      </c>
+      <c r="D12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" t="s">
+        <v>955</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46195</v>
+      </c>
+      <c r="J13" s="1">
+        <v>46195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E404C4-6913-4499-BF44-720B28C3E2CC}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46168</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3" t="s">
+        <v>958</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46169</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46171</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" t="s">
+        <v>960</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46185</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>956</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D6" t="s">
+        <v>962</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46190</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>956</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D7" t="s">
+        <v>964</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46190</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B8" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" t="s">
+        <v>965</v>
+      </c>
+      <c r="D8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46191</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>930</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>745</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46192</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>956</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>966</v>
+      </c>
+      <c r="D10" t="s">
+        <v>967</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>950</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>956</v>
+      </c>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>968</v>
+      </c>
+      <c r="D11" t="s">
+        <v>969</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J11" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>956</v>
+      </c>
+      <c r="B12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D12" t="s">
+        <v>971</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>956</v>
+      </c>
+      <c r="B13" t="s">
+        <v>936</v>
+      </c>
+      <c r="C13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" t="s">
+        <v>972</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J13" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01618DC-F670-4842-9D80-A6E170E1AFBF}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>895</v>
+      </c>
+      <c r="J1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46185</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46188</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="s">
+        <v>976</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46188</v>
+      </c>
+      <c r="J4" s="1">
+        <v>46190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>977</v>
+      </c>
+      <c r="D5" t="s">
+        <v>978</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46191</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>979</v>
+      </c>
+      <c r="D6" t="s">
+        <v>980</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46191</v>
+      </c>
+      <c r="J6" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>973</v>
+      </c>
+      <c r="B7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>763</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46192</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>973</v>
+      </c>
+      <c r="B8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C8" t="s">
+        <v>929</v>
+      </c>
+      <c r="D8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>745</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46193</v>
+      </c>
+      <c r="J8" s="1">
+        <v>46193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>973</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" t="s">
+        <v>982</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>950</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J9" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>973</v>
+      </c>
+      <c r="B10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C10" t="s">
+        <v>983</v>
+      </c>
+      <c r="D10" t="s">
+        <v>984</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J10" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" t="s">
+        <v>985</v>
+      </c>
+      <c r="D11" t="s">
+        <v>986</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46194</v>
+      </c>
+      <c r="J11" s="1">
+        <v>46194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D12" t="s">
+        <v>987</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46195</v>
+      </c>
+      <c r="J12" s="1">
+        <v>46195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDB212B-7EE5-4CCE-A35A-15599CD10061}">
   <dimension ref="A1:J228"/>
@@ -4316,10 +6327,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -4348,10 +6359,10 @@
         <v>159</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>55</v>
@@ -4376,10 +6387,10 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>55</v>
@@ -4404,10 +6415,10 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>55</v>
@@ -4434,10 +6445,10 @@
         <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>55</v>
@@ -4462,10 +6473,10 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>55</v>
@@ -4492,10 +6503,10 @@
         <v>165</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>166</v>
@@ -4520,10 +6531,10 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>166</v>
@@ -4550,10 +6561,10 @@
         <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>166</v>
@@ -4578,10 +6589,10 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>166</v>
@@ -4608,10 +6619,10 @@
         <v>173</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4636,10 +6647,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -4667,7 +6678,7 @@
         <v>178</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -4695,7 +6706,7 @@
         <v>180</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -4723,7 +6734,7 @@
         <v>181</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4751,7 +6762,7 @@
         <v>182</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
@@ -4779,7 +6790,7 @@
         <v>184</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>55</v>
@@ -4804,10 +6815,10 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>55</v>
@@ -4832,10 +6843,10 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>55</v>
@@ -4864,10 +6875,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -4892,10 +6903,10 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4920,10 +6931,10 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>13</v>
@@ -4948,10 +6959,10 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -4978,10 +6989,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
@@ -5006,10 +7017,10 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>13</v>
@@ -5034,10 +7045,10 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>13</v>
@@ -5062,10 +7073,10 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5092,10 +7103,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>13</v>
@@ -5120,10 +7131,10 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>13</v>
@@ -5148,10 +7159,10 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>13</v>
@@ -5178,16 +7189,16 @@
         <v>52</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -5206,16 +7217,16 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G32" s="7">
         <v>2</v>
@@ -5234,16 +7245,16 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -5262,16 +7273,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -5292,10 +7303,10 @@
         <v>66</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>69</v>
@@ -5320,10 +7331,10 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>69</v>
@@ -5350,10 +7361,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>69</v>
@@ -5378,10 +7389,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>69</v>
@@ -5408,10 +7419,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -5436,10 +7447,10 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>55</v>
@@ -5460,10 +7471,10 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>13</v>
@@ -5484,10 +7495,10 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>55</v>
@@ -5514,10 +7525,10 @@
         <v>90</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>69</v>
@@ -5544,10 +7555,10 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>13</v>
@@ -5572,10 +7583,10 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>55</v>
@@ -5596,10 +7607,10 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>13</v>
@@ -5620,10 +7631,10 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>55</v>
@@ -5650,10 +7661,10 @@
         <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>69</v>
@@ -5678,10 +7689,10 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>69</v>
@@ -5710,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>13</v>
@@ -5738,10 +7749,10 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>13</v>
@@ -5766,10 +7777,10 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>13</v>
@@ -5794,10 +7805,10 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>13</v>
@@ -5822,10 +7833,10 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>13</v>
@@ -5852,10 +7863,10 @@
         <v>145</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>13</v>
@@ -5880,10 +7891,10 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>13</v>
@@ -5908,10 +7919,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>13</v>
@@ -5938,10 +7949,10 @@
         <v>41</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>13</v>
@@ -5966,10 +7977,10 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>13</v>
@@ -5994,10 +8005,10 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>13</v>
@@ -6024,10 +8035,10 @@
         <v>146</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>13</v>
@@ -6052,10 +8063,10 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>13</v>
@@ -6080,10 +8091,10 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>13</v>
@@ -6108,10 +8119,10 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>13</v>
@@ -6138,16 +8149,16 @@
         <v>147</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
@@ -6166,16 +8177,16 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
@@ -6194,16 +8205,16 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G67" s="7">
         <v>1</v>
@@ -6222,16 +8233,16 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G68" s="7">
         <v>1</v>
@@ -6250,16 +8261,16 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
@@ -6280,10 +8291,10 @@
         <v>148</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>69</v>
@@ -6308,10 +8319,10 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>69</v>
@@ -6338,10 +8349,10 @@
         <v>74</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>69</v>
@@ -6366,10 +8377,10 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>69</v>
@@ -6396,10 +8407,10 @@
         <v>80</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>83</v>
@@ -6424,10 +8435,10 @@
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>83</v>
@@ -6452,10 +8463,10 @@
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>83</v>
@@ -6485,7 +8496,7 @@
         <v>156</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>69</v>
@@ -6510,10 +8521,10 @@
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>69</v>
@@ -6537,13 +8548,13 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>83</v>
@@ -6568,10 +8579,10 @@
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>13</v>
@@ -6596,10 +8607,10 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>69</v>
@@ -6624,10 +8635,10 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>69</v>
@@ -6654,10 +8665,10 @@
         <v>101</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -6676,10 +8687,10 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -6698,10 +8709,10 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6724,10 +8735,10 @@
         <v>190</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>13</v>
@@ -6752,10 +8763,10 @@
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>13</v>
@@ -6780,16 +8791,16 @@
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -6807,19 +8818,19 @@
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -6840,10 +8851,10 @@
         <v>192</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>13</v>
@@ -6868,10 +8879,10 @@
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>13</v>
@@ -6896,10 +8907,10 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>13</v>
@@ -6924,10 +8935,10 @@
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>13</v>
@@ -6954,16 +8965,16 @@
         <v>196</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G94" s="7">
         <v>2</v>
@@ -6982,10 +8993,10 @@
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>55</v>
@@ -7010,10 +9021,10 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>55</v>
@@ -7040,10 +9051,10 @@
         <v>80</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>13</v>
@@ -7068,10 +9079,10 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>55</v>
@@ -7098,16 +9109,16 @@
         <v>202</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G99" s="7">
         <v>2</v>
@@ -7125,19 +9136,19 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G100" s="7">
         <v>1</v>
@@ -7158,16 +9169,16 @@
         <v>90</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G101" s="7">
         <v>3</v>
@@ -7188,10 +9199,10 @@
         <v>175</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>13</v>
@@ -7216,10 +9227,10 @@
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>55</v>
@@ -7246,10 +9257,10 @@
         <v>101</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>69</v>
@@ -7274,10 +9285,10 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>69</v>
@@ -7306,10 +9317,10 @@
         <v>190</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>13</v>
@@ -7334,10 +9345,10 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>13</v>
@@ -7361,19 +9372,19 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G108" s="21">
         <v>1</v>
@@ -7394,16 +9405,16 @@
         <v>209</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G109" s="7">
         <v>2</v>
@@ -7422,10 +9433,10 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>13</v>
@@ -7449,19 +9460,19 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="23" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G111" s="23">
         <v>2</v>
@@ -7482,10 +9493,10 @@
         <v>211</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>13</v>
@@ -7510,10 +9521,10 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>13</v>
@@ -7538,10 +9549,10 @@
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>13</v>
@@ -7568,16 +9579,16 @@
         <v>74</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G115" s="23">
         <v>1</v>
@@ -7598,16 +9609,16 @@
         <v>214</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G116" s="7">
         <v>1</v>
@@ -7626,10 +9637,10 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>55</v>
@@ -7656,10 +9667,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>13</v>
@@ -7684,10 +9695,10 @@
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>55</v>
@@ -7711,13 +9722,13 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>69</v>
@@ -7744,10 +9755,10 @@
         <v>216</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>69</v>
@@ -7774,10 +9785,10 @@
         <v>175</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>13</v>
@@ -7802,10 +9813,10 @@
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>55</v>
@@ -7829,19 +9840,19 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E124" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G124" s="21">
         <v>1</v>
@@ -7862,10 +9873,10 @@
         <v>101</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E125" s="21" t="s">
         <v>69</v>
@@ -7894,10 +9905,10 @@
         <v>190</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>13</v>
@@ -7922,10 +9933,10 @@
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>13</v>
@@ -7952,10 +9963,10 @@
         <v>222</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>13</v>
@@ -7980,10 +9991,10 @@
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>13</v>
@@ -8010,16 +10021,16 @@
         <v>224</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G130" s="7">
         <v>2</v>
@@ -8038,10 +10049,10 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>55</v>
@@ -8068,10 +10079,10 @@
         <v>80</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>13</v>
@@ -8096,10 +10107,10 @@
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>55</v>
@@ -8126,10 +10137,10 @@
         <v>226</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>69</v>
@@ -8156,10 +10167,10 @@
         <v>175</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>13</v>
@@ -8184,10 +10195,10 @@
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>55</v>
@@ -8214,10 +10225,10 @@
         <v>101</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>69</v>
@@ -8246,10 +10257,10 @@
         <v>190</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>13</v>
@@ -8274,10 +10285,10 @@
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E139" s="7" t="s">
         <v>13</v>
@@ -8304,10 +10315,10 @@
         <v>230</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>13</v>
@@ -8332,10 +10343,10 @@
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>13</v>
@@ -8362,16 +10373,16 @@
         <v>232</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G142" s="7">
         <v>3</v>
@@ -8390,10 +10401,10 @@
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>55</v>
@@ -8420,10 +10431,10 @@
         <v>80</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>13</v>
@@ -8448,10 +10459,10 @@
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>55</v>
@@ -8478,10 +10489,10 @@
         <v>234</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>69</v>
@@ -8508,10 +10519,10 @@
         <v>175</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>13</v>
@@ -8536,10 +10547,10 @@
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>55</v>
@@ -8566,10 +10577,10 @@
         <v>101</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>69</v>
@@ -8598,10 +10609,10 @@
         <v>190</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>13</v>
@@ -8626,10 +10637,10 @@
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>13</v>
@@ -8656,10 +10667,10 @@
         <v>237</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>13</v>
@@ -8684,10 +10695,10 @@
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>13</v>
@@ -8714,16 +10725,16 @@
         <v>238</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G154" s="7">
         <v>2</v>
@@ -8742,10 +10753,10 @@
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>55</v>
@@ -8772,10 +10783,10 @@
         <v>80</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>13</v>
@@ -8800,10 +10811,10 @@
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>55</v>
@@ -8830,10 +10841,10 @@
         <v>90</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>69</v>
@@ -8860,7 +10871,7 @@
         <v>175</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>240</v>
@@ -8888,7 +10899,7 @@
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>176</v>
@@ -8918,10 +10929,10 @@
         <v>101</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>69</v>
@@ -8950,10 +10961,10 @@
         <v>190</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>13</v>
@@ -8981,7 +10992,7 @@
         <v>243</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>13</v>
@@ -9008,10 +11019,10 @@
         <v>244</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>13</v>
@@ -9038,10 +11049,10 @@
         <v>245</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>13</v>
@@ -9068,16 +11079,16 @@
         <v>248</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G166" s="7">
         <v>2</v>
@@ -9096,10 +11107,10 @@
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>55</v>
@@ -9126,10 +11137,10 @@
         <v>80</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>13</v>
@@ -9154,10 +11165,10 @@
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>55</v>
@@ -9184,10 +11195,10 @@
         <v>90</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>69</v>
@@ -9214,10 +11225,10 @@
         <v>175</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>13</v>
@@ -9242,10 +11253,10 @@
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>55</v>
@@ -9272,10 +11283,10 @@
         <v>101</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>69</v>
@@ -9304,10 +11315,10 @@
         <v>190</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>13</v>
@@ -9332,16 +11343,16 @@
       <c r="A175" s="11"/>
       <c r="B175" s="17"/>
       <c r="C175" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G175" s="7">
         <v>1</v>
@@ -9360,16 +11371,16 @@
       <c r="A176" s="11"/>
       <c r="B176" s="18"/>
       <c r="C176" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G176" s="7">
         <v>1</v>
@@ -9387,13 +11398,13 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>13</v>
@@ -9418,16 +11429,16 @@
       <c r="A178" s="11"/>
       <c r="B178" s="18"/>
       <c r="C178" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G178" s="7">
         <v>3</v>
@@ -9445,19 +11456,19 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G179" s="7">
         <v>3</v>
@@ -9472,16 +11483,16 @@
       <c r="A180" s="11"/>
       <c r="B180" s="18"/>
       <c r="C180" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G180" s="7">
         <v>2</v>
@@ -9502,10 +11513,10 @@
         <v>80</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>13</v>
@@ -9530,10 +11541,10 @@
       <c r="A182" s="11"/>
       <c r="B182" s="18"/>
       <c r="C182" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>55</v>
@@ -9556,10 +11567,10 @@
         <v>90</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>69</v>
@@ -9582,10 +11593,10 @@
         <v>175</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>13</v>
@@ -9606,10 +11617,10 @@
       <c r="A185" s="11"/>
       <c r="B185" s="18"/>
       <c r="C185" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>55</v>
@@ -9632,10 +11643,10 @@
         <v>101</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>69</v>
@@ -9658,22 +11669,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G187" s="7">
         <v>1</v>
@@ -9692,16 +11703,16 @@
       <c r="A188" s="6"/>
       <c r="B188" s="12"/>
       <c r="C188" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G188" s="7">
         <v>2</v>
@@ -9719,13 +11730,13 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>13</v>
@@ -9745,19 +11756,19 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G190" s="7">
         <v>3</v>
@@ -9776,16 +11787,16 @@
       <c r="A191" s="6"/>
       <c r="B191" s="12"/>
       <c r="C191" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G191" s="7">
         <v>2</v>
@@ -9802,10 +11813,10 @@
         <v>80</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>13</v>
@@ -9826,10 +11837,10 @@
       <c r="A193" s="6"/>
       <c r="B193" s="12"/>
       <c r="C193" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>55</v>
@@ -9856,10 +11867,10 @@
         <v>90</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>69</v>
@@ -9886,10 +11897,10 @@
         <v>175</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>83</v>
@@ -9912,10 +11923,10 @@
         <v>101</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>69</v>
@@ -9938,22 +11949,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G197" s="7">
         <v>1</v>
@@ -9971,13 +11982,13 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>13</v>
@@ -10002,16 +12013,16 @@
       <c r="A199" s="6"/>
       <c r="B199" s="12"/>
       <c r="C199" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G199" s="7">
         <v>2</v>
@@ -10029,19 +12040,19 @@
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G200" s="7">
         <v>3</v>
@@ -10062,10 +12073,10 @@
         <v>80</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>83</v>
@@ -10092,10 +12103,10 @@
         <v>90</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>69</v>
@@ -10122,10 +12133,10 @@
         <v>175</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>83</v>
@@ -10155,7 +12166,7 @@
         <v>217</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>69</v>
@@ -10178,22 +12189,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G205" s="7">
         <v>1</v>
@@ -10211,13 +12222,13 @@
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>13</v>
@@ -10242,16 +12253,16 @@
       <c r="A207" s="6"/>
       <c r="B207" s="12"/>
       <c r="C207" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G207" s="7">
         <v>2</v>
@@ -10269,13 +12280,13 @@
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>55</v>
@@ -10302,10 +12313,10 @@
         <v>80</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>83</v>
@@ -10332,10 +12343,10 @@
         <v>90</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>69</v>
@@ -10362,10 +12373,10 @@
         <v>175</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>83</v>
@@ -10395,7 +12406,7 @@
         <v>107</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>69</v>
@@ -10418,22 +12429,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G213" s="7">
         <v>1</v>
@@ -10451,13 +12462,13 @@
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>13</v>
@@ -10481,13 +12492,13 @@
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>55</v>
@@ -10514,10 +12525,10 @@
         <v>80</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>83</v>
@@ -10544,10 +12555,10 @@
         <v>90</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>69</v>
@@ -10574,10 +12585,10 @@
         <v>175</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>83</v>
@@ -10604,10 +12615,10 @@
         <v>101</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>69</v>
@@ -10633,25 +12644,25 @@
         <v>158</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G220" s="7">
         <v>1</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I220" s="8">
         <v>46251</v>
@@ -10664,22 +12675,22 @@
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G221" s="7">
         <v>1</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I221" s="8">
         <v>46252</v>
@@ -10691,25 +12702,25 @@
     <row r="222" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G222" s="7">
         <v>3</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I222" s="8">
         <v>46253</v>
@@ -10722,22 +12733,22 @@
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F223" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G223" s="7">
         <v>2</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I223" s="8">
         <v>46256</v>
@@ -10749,19 +12760,19 @@
     <row r="224" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G224" s="7">
         <v>2</v>
@@ -10780,16 +12791,16 @@
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G225" s="7">
         <v>2</v>
@@ -10808,16 +12819,16 @@
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G226" s="7">
         <v>1</v>
@@ -10835,13 +12846,13 @@
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>69</v>
@@ -10866,22 +12877,22 @@
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I228" s="8">
         <v>46262</v>
@@ -11006,31 +13017,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -11038,10 +13049,10 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -11067,10 +13078,10 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -11096,16 +13107,16 @@
         <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -11122,19 +13133,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -11154,10 +13165,10 @@
         <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -11183,10 +13194,10 @@
         <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -11212,10 +13223,10 @@
         <v>192</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -11241,10 +13252,10 @@
         <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -11270,16 +13281,16 @@
         <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -11299,10 +13310,10 @@
         <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -11328,10 +13339,10 @@
         <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -11357,10 +13368,10 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C13" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -11386,10 +13397,10 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -11415,16 +13426,16 @@
         <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -11441,19 +13452,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B16" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D16" t="s">
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -11473,16 +13484,16 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -11502,10 +13513,10 @@
         <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -11531,10 +13542,10 @@
         <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C19" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -11557,19 +13568,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B20" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C20" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -11589,10 +13600,10 @@
         <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -11615,13 +13626,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -11644,31 +13655,31 @@
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -11676,16 +13687,16 @@
         <v>190</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F24" s="19">
         <v>2</v>
@@ -11705,10 +13716,10 @@
         <v>190</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -11731,19 +13742,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
@@ -11763,10 +13774,10 @@
         <v>209</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>55</v>
@@ -11789,10 +13800,10 @@
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>13</v>
@@ -11816,19 +13827,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F29" s="19">
         <v>2</v>
@@ -11848,10 +13859,10 @@
         <v>211</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>13</v>
@@ -11874,10 +13885,10 @@
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -11901,10 +13912,10 @@
     </row>
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
@@ -11928,19 +13939,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F33" s="19">
         <v>1</v>
@@ -11960,10 +13971,10 @@
         <v>214</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>55</v>
@@ -11986,10 +13997,10 @@
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>55</v>
@@ -12016,10 +14027,10 @@
         <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>13</v>
@@ -12045,10 +14056,10 @@
         <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>55</v>
@@ -12071,13 +14082,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>69</v>
@@ -12103,10 +14114,10 @@
         <v>216</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>69</v>
@@ -12132,7 +14143,7 @@
         <v>175</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>204</v>
@@ -12161,7 +14172,7 @@
         <v>175</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>205</v>
@@ -12187,19 +14198,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F42" s="19">
         <v>1</v>
@@ -12219,10 +14230,10 @@
         <v>101</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>69</v>
@@ -12245,31 +14256,31 @@
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -12277,10 +14288,10 @@
         <v>190</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>13</v>
@@ -12306,10 +14317,10 @@
         <v>220</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>13</v>
@@ -12332,19 +14343,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F47" s="19">
         <v>1</v>
@@ -12364,10 +14375,10 @@
         <v>222</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>13</v>
@@ -12390,10 +14401,10 @@
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>204</v>
@@ -12419,19 +14430,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F50" s="19">
         <v>2</v>
@@ -12451,10 +14462,10 @@
         <v>224</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>55</v>
@@ -12477,13 +14488,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>55</v>
@@ -12506,19 +14517,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F53" s="19">
         <v>1</v>
@@ -12538,10 +14549,10 @@
         <v>80</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>13</v>
@@ -12567,10 +14578,10 @@
         <v>80</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>55</v>
@@ -12593,13 +14604,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>69</v>
@@ -12625,10 +14636,10 @@
         <v>226</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>69</v>
@@ -12654,10 +14665,10 @@
         <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>13</v>
@@ -12683,10 +14694,10 @@
         <v>175</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>55</v>
@@ -12709,19 +14720,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F60" s="19">
         <v>1</v>
@@ -12741,10 +14752,10 @@
         <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>69</v>
@@ -12794,13 +14805,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -12826,13 +14837,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -12858,13 +14869,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -12890,13 +14901,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -12922,13 +14933,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -12954,13 +14965,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -12986,13 +14997,13 @@
         <v>145</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -13018,13 +15029,13 @@
         <v>145</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -13050,13 +15061,13 @@
         <v>145</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -13082,13 +15093,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -13114,13 +15125,13 @@
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -13146,13 +15157,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -13178,13 +15189,13 @@
         <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -13210,13 +15221,13 @@
         <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -13242,13 +15253,13 @@
         <v>146</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -13274,13 +15285,13 @@
         <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -13306,13 +15317,13 @@
         <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E17" t="s">
         <v>55</v>
@@ -13338,13 +15349,13 @@
         <v>147</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="E18" t="s">
         <v>55</v>
@@ -13370,13 +15381,13 @@
         <v>147</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -13402,13 +15413,13 @@
         <v>147</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -13434,13 +15445,13 @@
         <v>147</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
@@ -13466,13 +15477,13 @@
         <v>148</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -13498,13 +15509,13 @@
         <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -13530,13 +15541,13 @@
         <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -13562,13 +15573,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -13594,13 +15605,13 @@
         <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -13626,13 +15637,13 @@
         <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -13658,13 +15669,13 @@
         <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -13693,10 +15704,10 @@
         <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
@@ -13722,13 +15733,13 @@
         <v>90</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E30" t="s">
         <v>69</v>
@@ -13751,16 +15762,16 @@
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -13797,7 +15808,7 @@
         <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D1" s="1">
         <v>46106</v>
@@ -13817,7 +15828,7 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D2" s="1">
         <v>46107</v>
@@ -13837,7 +15848,7 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D3" s="1">
         <v>46107</v>
@@ -13857,7 +15868,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D4" s="1">
         <v>46108</v>
@@ -13877,7 +15888,7 @@
         <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D5" s="1">
         <v>46112</v>
@@ -13897,7 +15908,7 @@
         <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D6" s="1">
         <v>46113</v>
@@ -13917,7 +15928,7 @@
         <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7" s="1">
         <v>46114</v>
@@ -13937,7 +15948,7 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D8" s="1">
         <v>46108</v>
@@ -13957,7 +15968,7 @@
         <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D9" s="1">
         <v>46112</v>
@@ -13977,7 +15988,7 @@
         <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D10" s="1">
         <v>46114</v>
@@ -13997,7 +16008,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D11" s="1">
         <v>46115</v>
@@ -14017,7 +16028,7 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D12" s="1">
         <v>46115</v>
@@ -14037,7 +16048,7 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D13" s="1">
         <v>46118</v>
@@ -14057,7 +16068,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D14" s="1">
         <v>46120</v>
@@ -14077,7 +16088,7 @@
         <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D15" s="1">
         <v>46125</v>
@@ -14097,7 +16108,7 @@
         <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D16" s="1">
         <v>46125</v>
@@ -14117,7 +16128,7 @@
         <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D17" s="1">
         <v>46126</v>
@@ -14137,7 +16148,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D18" s="1">
         <v>46127</v>
@@ -14157,7 +16168,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D19" s="1">
         <v>46128</v>
@@ -14177,7 +16188,7 @@
         <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D20" s="1">
         <v>46129</v>
@@ -14197,7 +16208,7 @@
         <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D21" s="1">
         <v>46128</v>
@@ -14217,7 +16228,7 @@
         <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D22" s="1">
         <v>46132</v>
@@ -14237,7 +16248,7 @@
         <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D23" s="1">
         <v>46133</v>
@@ -14257,7 +16268,7 @@
         <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D24" s="1">
         <v>46135</v>
@@ -14277,7 +16288,7 @@
         <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D25" s="1">
         <v>46139</v>
@@ -14297,7 +16308,7 @@
         <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D26" s="1">
         <v>46133</v>
@@ -14317,7 +16328,7 @@
         <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D27" s="1">
         <v>46134</v>
@@ -14337,7 +16348,7 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D28" s="1">
         <v>46140</v>
@@ -14357,7 +16368,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D29" s="1">
         <v>46140</v>
@@ -14377,7 +16388,7 @@
         <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D30" s="1">
         <v>46141</v>
@@ -14397,7 +16408,7 @@
         <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D31" s="1">
         <v>46143</v>
@@ -14417,7 +16428,7 @@
         <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D32" s="1">
         <v>46143</v>
@@ -14437,7 +16448,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D33" s="1">
         <v>46146</v>
@@ -14475,28 +16486,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -14504,10 +16515,10 @@
         <v>190</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>13</v>
@@ -14530,10 +16541,10 @@
         <v>190</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>13</v>
@@ -14553,13 +16564,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>13</v>
@@ -14579,13 +16590,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>13</v>
@@ -14605,13 +16616,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>55</v>
@@ -14631,13 +16642,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>55</v>
@@ -14660,10 +16671,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>13</v>
@@ -14686,10 +16697,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>55</v>
@@ -14712,10 +16723,10 @@
         <v>202</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>69</v>
@@ -14738,10 +16749,10 @@
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>69</v>
@@ -14764,10 +16775,10 @@
         <v>234</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>69</v>
@@ -14787,13 +16798,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>13</v>
@@ -14813,13 +16824,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>55</v>
@@ -14839,13 +16850,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>69</v>
@@ -14883,25 +16894,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -14909,10 +16920,10 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -14932,13 +16943,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C3" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -14961,10 +16972,10 @@
         <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -14987,10 +16998,10 @@
         <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -15013,10 +17024,10 @@
         <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C6" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -15036,13 +17047,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -15068,7 +17079,7 @@
         <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -15094,7 +17105,7 @@
         <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -15114,13 +17125,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -15140,13 +17151,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -15169,10 +17180,10 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
@@ -15192,10 +17203,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C13" t="s">
         <v>240</v>
@@ -15218,10 +17229,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C14" t="s">
         <v>205</v>
@@ -15244,13 +17255,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B15" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C15" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -15277,7 +17288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5035B056-8830-4F37-A3F9-C7B42CC8D018}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -15288,25 +17299,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -15314,10 +17325,10 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -15343,7 +17354,7 @@
         <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -15366,10 +17377,10 @@
         <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -15395,7 +17406,7 @@
         <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -15418,10 +17429,10 @@
         <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -15444,10 +17455,10 @@
         <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -15470,10 +17481,10 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -15499,7 +17510,7 @@
         <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -15519,13 +17530,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -15545,13 +17556,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B11" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -15574,10 +17585,10 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C12" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
@@ -15597,13 +17608,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -15623,13 +17634,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B14" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -15649,13 +17660,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B15" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C15" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -15671,6 +17682,514 @@
       </c>
       <c r="H15" s="1">
         <v>46162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4639595-C22F-4CE5-995C-B4CC68DCA691}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="14">
+        <v>46162</v>
+      </c>
+      <c r="I2" s="14">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="14">
+        <v>46163</v>
+      </c>
+      <c r="I3" s="14">
+        <v>46163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="14">
+        <v>46164</v>
+      </c>
+      <c r="I4" s="14">
+        <v>46164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="14">
+        <v>46165</v>
+      </c>
+      <c r="I5" s="14">
+        <v>46165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="14">
+        <v>46168</v>
+      </c>
+      <c r="I6" s="14">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14">
+        <v>46168</v>
+      </c>
+      <c r="I7" s="14">
+        <v>46170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="14">
+        <v>46171</v>
+      </c>
+      <c r="I8" s="14">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="14">
+        <v>46175</v>
+      </c>
+      <c r="I9" s="14">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="14">
+        <v>46175</v>
+      </c>
+      <c r="I10" s="14">
+        <v>46176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="14">
+        <v>46177</v>
+      </c>
+      <c r="I11" s="14">
+        <v>46178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14">
+        <v>46179</v>
+      </c>
+      <c r="I12" s="14">
+        <v>46179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="14">
+        <v>46180</v>
+      </c>
+      <c r="I13" s="14">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="14">
+        <v>46181</v>
+      </c>
+      <c r="I14" s="14">
+        <v>46181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="14">
+        <v>46182</v>
+      </c>
+      <c r="I15" s="14">
+        <v>46182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="14">
+        <v>46182</v>
+      </c>
+      <c r="I16" s="14">
+        <v>46182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="14">
+        <v>46183</v>
+      </c>
+      <c r="I17" s="14">
+        <v>46183</v>
       </c>
     </row>
   </sheetData>
